--- a/2-Empirical-Evidence/raw_data/Ohio.xlsx
+++ b/2-Empirical-Evidence/raw_data/Ohio.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN390010000000003</t>
@@ -1594,10 +1610,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>11.2</v>
@@ -1692,10 +1720,20 @@
       <c r="AF5" t="n" s="10">
         <v>9.3</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>1116.0</v>
@@ -1790,10 +1828,20 @@
       <c r="AF6" t="n" s="8">
         <v>1008.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>695.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>588.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>561.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>8885.0</v>
@@ -1888,10 +1936,20 @@
       <c r="AF7" t="n" s="8">
         <v>9853.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>10202.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>10376.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>10550.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>10001.0</v>
@@ -1986,10 +2044,20 @@
       <c r="AF8" t="n" s="8">
         <v>10861.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>10897.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>10964.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>11111.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>7.8</v>
@@ -2084,10 +2152,20 @@
       <c r="AF9" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>4120.0</v>
@@ -2182,10 +2260,20 @@
       <c r="AF10" t="n" s="8">
         <v>4098.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>2737.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>1969.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>1745.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>48655.0</v>
@@ -2280,10 +2368,20 @@
       <c r="AF11" t="n" s="8">
         <v>43698.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>44464.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>44748.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>45151.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>52775.0</v>
@@ -2378,10 +2476,20 @@
       <c r="AF12" t="n" s="8">
         <v>47796.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>47201.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>46717.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>46896.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>5.8</v>
@@ -2476,10 +2584,20 @@
       <c r="AF13" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>1410.0</v>
@@ -2574,10 +2692,20 @@
       <c r="AF14" t="n" s="8">
         <v>1700.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>1151.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>998.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>884.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>22949.0</v>
@@ -2672,10 +2800,20 @@
       <c r="AF15" t="n" s="8">
         <v>24573.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>24963.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>24922.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>24848.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>24359.0</v>
@@ -2770,10 +2908,20 @@
       <c r="AF16" t="n" s="8">
         <v>26273.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>26114.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>25920.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>25732.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>7.8</v>
@@ -2868,10 +3016,20 @@
       <c r="AF17" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>3590.0</v>
@@ -2966,10 +3124,20 @@
       <c r="AF18" t="n" s="8">
         <v>3635.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>2388.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>1891.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>1701.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>42267.0</v>
@@ -3064,10 +3232,20 @@
       <c r="AF19" t="n" s="8">
         <v>40037.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>40594.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>40967.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>41154.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>45857.0</v>
@@ -3162,10 +3340,20 @@
       <c r="AF20" t="n" s="8">
         <v>43672.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>42982.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>42858.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>42855.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>5.9</v>
@@ -3260,10 +3448,20 @@
       <c r="AF21" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>1451.0</v>
@@ -3358,10 +3556,20 @@
       <c r="AF22" t="n" s="8">
         <v>2007.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>1441.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>1252.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>1152.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>23245.0</v>
@@ -3456,10 +3664,20 @@
       <c r="AF23" t="n" s="8">
         <v>24340.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>24245.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>24792.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>24824.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>24696.0</v>
@@ -3554,10 +3772,20 @@
       <c r="AF24" t="n" s="8">
         <v>26347.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>25686.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>26044.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>25976.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>6.1</v>
@@ -3652,10 +3880,20 @@
       <c r="AF25" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>1426.0</v>
@@ -3750,10 +3988,20 @@
       <c r="AF26" t="n" s="8">
         <v>1683.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>909.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>740.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>649.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>21849.0</v>
@@ -3848,10 +4096,20 @@
       <c r="AF27" t="n" s="8">
         <v>22822.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>23259.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>23238.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>24003.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>23275.0</v>
@@ -3946,10 +4204,20 @@
       <c r="AF28" t="n" s="8">
         <v>24505.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>24168.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>23978.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>24652.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>6.5</v>
@@ -4044,10 +4312,20 @@
       <c r="AF29" t="n" s="10">
         <v>10.1</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>1962.0</v>
@@ -4142,10 +4420,20 @@
       <c r="AF30" t="n" s="8">
         <v>2891.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>1712.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>1399.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>1208.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>28149.0</v>
@@ -4240,10 +4528,20 @@
       <c r="AF31" t="n" s="8">
         <v>25615.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>25955.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>26065.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>26508.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>30111.0</v>
@@ -4338,10 +4636,20 @@
       <c r="AF32" t="n" s="8">
         <v>28506.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>27667.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>27464.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>27716.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>6.4</v>
@@ -4436,10 +4744,20 @@
       <c r="AF33" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>1080.0</v>
@@ -4534,10 +4852,20 @@
       <c r="AF34" t="n" s="8">
         <v>1603.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>1040.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>879.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>802.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>15693.0</v>
@@ -4632,10 +4960,20 @@
       <c r="AF35" t="n" s="8">
         <v>17645.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>18256.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>18587.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>18864.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>16773.0</v>
@@ -4730,10 +5068,20 @@
       <c r="AF36" t="n" s="8">
         <v>19248.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>19296.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>19466.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>19666.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>5.8</v>
@@ -4828,10 +5176,20 @@
       <c r="AF37" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>8764.0</v>
@@ -4926,10 +5284,20 @@
       <c r="AF38" t="n" s="8">
         <v>14078.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>8818.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>7003.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>6393.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>141057.0</v>
@@ -5024,10 +5392,20 @@
       <c r="AF39" t="n" s="8">
         <v>179572.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>185665.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>189835.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>193048.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>149821.0</v>
@@ -5122,10 +5500,20 @@
       <c r="AF40" t="n" s="8">
         <v>193650.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>194483.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>196838.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>199441.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>6.4</v>
@@ -5220,10 +5608,20 @@
       <c r="AF41" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>780.0</v>
@@ -5318,10 +5716,20 @@
       <c r="AF42" t="n" s="8">
         <v>1134.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>718.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>541.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>492.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>11434.0</v>
@@ -5416,10 +5824,20 @@
       <c r="AF43" t="n" s="8">
         <v>11703.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>11946.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>11968.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>12096.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>12214.0</v>
@@ -5514,10 +5932,20 @@
       <c r="AF44" t="n" s="8">
         <v>12837.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>12664.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>12509.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>12588.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>6.4</v>
@@ -5612,10 +6040,20 @@
       <c r="AF45" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>1220.0</v>
@@ -5710,10 +6148,20 @@
       <c r="AF46" t="n" s="8">
         <v>1415.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>861.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>716.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>620.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>17820.0</v>
@@ -5808,10 +6256,20 @@
       <c r="AF47" t="n" s="8">
         <v>18371.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>18383.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>18477.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>18867.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>19040.0</v>
@@ -5906,10 +6364,20 @@
       <c r="AF48" t="n" s="8">
         <v>19786.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>19244.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>19193.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>19487.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>6.1</v>
@@ -6004,10 +6472,20 @@
       <c r="AF49" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>4348.0</v>
@@ -6102,10 +6580,20 @@
       <c r="AF50" t="n" s="8">
         <v>5093.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>3344.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>2566.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>2280.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>67152.0</v>
@@ -6200,10 +6688,20 @@
       <c r="AF51" t="n" s="8">
         <v>57526.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>59027.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>60100.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>60944.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>71500.0</v>
@@ -6298,10 +6796,20 @@
       <c r="AF52" t="n" s="8">
         <v>62619.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>62371.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>62666.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>63224.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>4.8</v>
@@ -6396,10 +6904,20 @@
       <c r="AF53" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>3812.0</v>
@@ -6494,10 +7012,20 @@
       <c r="AF54" t="n" s="8">
         <v>7284.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>4655.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>3842.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>3484.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>76221.0</v>
@@ -6592,10 +7120,20 @@
       <c r="AF55" t="n" s="8">
         <v>98553.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>101943.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>104095.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>105774.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>80033.0</v>
@@ -6690,10 +7228,20 @@
       <c r="AF56" t="n" s="8">
         <v>105837.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>106598.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>107937.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>109258.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>5.9</v>
@@ -6788,10 +7336,20 @@
       <c r="AF57" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>1077.0</v>
@@ -6886,10 +7444,20 @@
       <c r="AF58" t="n" s="8">
         <v>1480.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>985.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>781.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>720.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>17039.0</v>
@@ -6984,10 +7552,20 @@
       <c r="AF59" t="n" s="8">
         <v>16198.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>16819.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>17086.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>17427.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>18116.0</v>
@@ -7082,10 +7660,20 @@
       <c r="AF60" t="n" s="8">
         <v>17678.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>17804.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>17867.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>18147.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>6.0</v>
@@ -7180,10 +7768,20 @@
       <c r="AF61" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>2939.0</v>
@@ -7278,10 +7876,20 @@
       <c r="AF62" t="n" s="8">
         <v>4423.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>2638.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>2065.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>1885.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>46014.0</v>
@@ -7376,10 +7984,20 @@
       <c r="AF63" t="n" s="8">
         <v>42616.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>42852.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>42709.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>43100.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>48953.0</v>
@@ -7474,10 +8092,20 @@
       <c r="AF64" t="n" s="8">
         <v>47039.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>45490.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>44774.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>44985.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>6.2</v>
@@ -7572,10 +8200,20 @@
       <c r="AF65" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>1012.0</v>
@@ -7670,10 +8308,20 @@
       <c r="AF66" t="n" s="8">
         <v>1256.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>807.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>666.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>618.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>15365.0</v>
@@ -7768,10 +8416,20 @@
       <c r="AF67" t="n" s="8">
         <v>12836.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>12896.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>12997.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>13234.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>16377.0</v>
@@ -7866,10 +8524,20 @@
       <c r="AF68" t="n" s="8">
         <v>14092.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>13703.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>13663.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>13852.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>9.9</v>
@@ -7964,10 +8632,20 @@
       <c r="AF69" t="n" s="10">
         <v>9.3</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>2353.0</v>
@@ -8062,10 +8740,20 @@
       <c r="AF70" t="n" s="8">
         <v>1732.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>1055.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>844.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>757.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>21308.0</v>
@@ -8160,10 +8848,20 @@
       <c r="AF71" t="n" s="8">
         <v>16798.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>16873.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>16808.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>16996.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>23661.0</v>
@@ -8258,10 +8956,20 @@
       <c r="AF72" t="n" s="8">
         <v>18530.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>17928.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>17652.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>17753.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>5.1</v>
@@ -8356,10 +9064,20 @@
       <c r="AF73" t="n" s="10">
         <v>10.5</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>34244.0</v>
@@ -8454,10 +9172,20 @@
       <c r="AF74" t="n" s="8">
         <v>62788.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>37053.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>28731.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>23293.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>636200.0</v>
@@ -8552,10 +9280,20 @@
       <c r="AF75" t="n" s="8">
         <v>536505.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>558382.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>571700.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>582260.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>670444.0</v>
@@ -8650,10 +9388,20 @@
       <c r="AF76" t="n" s="8">
         <v>599293.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>595435.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>600431.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>605553.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>7.0</v>
@@ -8748,10 +9496,20 @@
       <c r="AF77" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>1927.0</v>
@@ -8846,10 +9604,20 @@
       <c r="AF78" t="n" s="8">
         <v>1728.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>1009.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>903.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>805.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>25619.0</v>
@@ -8944,10 +9712,20 @@
       <c r="AF79" t="n" s="8">
         <v>23910.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>24480.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>24634.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>24953.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>27546.0</v>
@@ -9042,10 +9820,20 @@
       <c r="AF80" t="n" s="8">
         <v>25638.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>25489.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>25537.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>25758.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>8.1</v>
@@ -9140,10 +9928,20 @@
       <c r="AF81" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>1685.0</v>
@@ -9238,10 +10036,20 @@
       <c r="AF82" t="n" s="8">
         <v>1453.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>830.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>686.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>609.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>19143.0</v>
@@ -9336,10 +10144,20 @@
       <c r="AF83" t="n" s="8">
         <v>16278.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>16633.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>16638.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>16964.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>20828.0</v>
@@ -9434,10 +10252,20 @@
       <c r="AF84" t="n" s="8">
         <v>17731.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>17463.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>17324.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>17573.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>3.5</v>
@@ -9532,10 +10360,20 @@
       <c r="AF85" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>1280.0</v>
@@ -9630,10 +10468,20 @@
       <c r="AF86" t="n" s="8">
         <v>6019.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>4159.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>3460.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>3261.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>35454.0</v>
@@ -9728,10 +10576,20 @@
       <c r="AF87" t="n" s="8">
         <v>106035.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>109721.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>111711.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>113218.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>36734.0</v>
@@ -9826,10 +10684,20 @@
       <c r="AF88" t="n" s="8">
         <v>112054.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>113880.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>115171.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>116479.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>6.4</v>
@@ -9924,10 +10792,20 @@
       <c r="AF89" t="n" s="10">
         <v>10.4</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>2652.0</v>
@@ -10022,10 +10900,20 @@
       <c r="AF90" t="n" s="8">
         <v>3791.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>2360.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>1779.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>1600.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>38675.0</v>
@@ -10120,10 +11008,20 @@
       <c r="AF91" t="n" s="8">
         <v>32680.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>34536.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>34733.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>34780.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>41327.0</v>
@@ -10218,10 +11116,20 @@
       <c r="AF92" t="n" s="8">
         <v>36471.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>36896.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>36512.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>36380.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>5.3</v>
@@ -10316,10 +11224,20 @@
       <c r="AF93" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>2831.0</v>
@@ -10414,10 +11332,20 @@
       <c r="AF94" t="n" s="8">
         <v>5214.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>3492.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>2798.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>2531.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>50715.0</v>
@@ -10512,10 +11440,20 @@
       <c r="AF95" t="n" s="8">
         <v>73318.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>75810.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>77231.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>78328.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>53546.0</v>
@@ -10610,10 +11548,20 @@
       <c r="AF96" t="n" s="8">
         <v>78532.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>79302.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>80029.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>80859.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>7.2</v>
@@ -10708,10 +11656,20 @@
       <c r="AF97" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>939.0</v>
@@ -10806,10 +11764,20 @@
       <c r="AF98" t="n" s="8">
         <v>1029.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>662.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>528.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>494.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>12052.0</v>
@@ -10904,10 +11872,20 @@
       <c r="AF99" t="n" s="8">
         <v>12910.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>12977.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>13142.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>13247.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>12991.0</v>
@@ -11002,10 +11980,20 @@
       <c r="AF100" t="n" s="8">
         <v>13939.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>13639.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>13670.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>13741.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>3.4</v>
@@ -11100,10 +12088,20 @@
       <c r="AF101" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>18107.0</v>
@@ -11198,10 +12196,20 @@
       <c r="AF102" t="n" s="8">
         <v>52837.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>35099.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>24297.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>22438.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>517047.0</v>
@@ -11296,10 +12304,20 @@
       <c r="AF103" t="n" s="8">
         <v>646859.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>669207.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>682093.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>691659.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>535154.0</v>
@@ -11394,10 +12412,20 @@
       <c r="AF104" t="n" s="8">
         <v>699696.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>704306.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>706390.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>714097.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>7.9</v>
@@ -11492,10 +12520,20 @@
       <c r="AF105" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>1657.0</v>
@@ -11590,10 +12628,20 @@
       <c r="AF106" t="n" s="8">
         <v>1714.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>1026.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>868.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>772.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>19194.0</v>
@@ -11688,10 +12736,20 @@
       <c r="AF107" t="n" s="8">
         <v>20038.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>20482.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>20758.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>21080.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>20851.0</v>
@@ -11786,10 +12844,20 @@
       <c r="AF108" t="n" s="8">
         <v>21752.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>21508.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>21626.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>21852.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>8.2</v>
@@ -11884,10 +12952,20 @@
       <c r="AF109" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>1089.0</v>
@@ -11982,10 +13060,20 @@
       <c r="AF110" t="n" s="8">
         <v>975.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>689.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>564.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>525.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>12118.0</v>
@@ -12080,10 +13168,20 @@
       <c r="AF111" t="n" s="8">
         <v>11225.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>11322.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>11477.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>11670.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>13207.0</v>
@@ -12178,10 +13276,20 @@
       <c r="AF112" t="n" s="8">
         <v>12200.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>12011.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>12041.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>12195.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>4.0</v>
@@ -12276,10 +13384,20 @@
       <c r="AF113" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>1675.0</v>
@@ -12374,10 +13492,20 @@
       <c r="AF114" t="n" s="8">
         <v>3141.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>1913.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>1909.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>1534.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>40377.0</v>
@@ -12472,10 +13600,20 @@
       <c r="AF115" t="n" s="8">
         <v>43719.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>45590.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>46485.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>47243.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>42052.0</v>
@@ -12570,10 +13708,20 @@
       <c r="AF116" t="n" s="8">
         <v>46860.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>47503.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>48394.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>48777.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>4.7</v>
@@ -12668,10 +13816,20 @@
       <c r="AF117" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>3222.0</v>
@@ -12766,10 +13924,20 @@
       <c r="AF118" t="n" s="8">
         <v>5322.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>3587.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>2940.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>2657.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>65055.0</v>
@@ -12864,10 +14032,20 @@
       <c r="AF119" t="n" s="8">
         <v>76863.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>78052.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>78826.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>79747.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>68277.0</v>
@@ -12962,10 +14140,20 @@
       <c r="AF120" t="n" s="8">
         <v>82185.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>81639.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>81766.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>82404.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>8.8</v>
@@ -13060,10 +14248,20 @@
       <c r="AF121" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>1571.0</v>
@@ -13158,10 +14356,20 @@
       <c r="AF122" t="n" s="8">
         <v>1587.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>999.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>869.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>776.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>16340.0</v>
@@ -13256,10 +14464,20 @@
       <c r="AF123" t="n" s="8">
         <v>16667.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>16742.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>16860.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>17089.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>17911.0</v>
@@ -13354,10 +14572,20 @@
       <c r="AF124" t="n" s="8">
         <v>18254.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>17741.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>17729.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>17865.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>4.1</v>
@@ -13452,10 +14680,20 @@
       <c r="AF125" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>17894.0</v>
@@ -13550,10 +14788,20 @@
       <c r="AF126" t="n" s="8">
         <v>32419.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>20199.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>15024.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>13656.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>422642.0</v>
@@ -13648,10 +14896,20 @@
       <c r="AF127" t="n" s="8">
         <v>380346.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>393436.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>401963.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>408524.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>440536.0</v>
@@ -13746,10 +15004,20 @@
       <c r="AF128" t="n" s="8">
         <v>412765.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>413635.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>416987.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>422180.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>4.6</v>
@@ -13844,10 +15112,20 @@
       <c r="AF129" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>1620.0</v>
@@ -13942,10 +15220,20 @@
       <c r="AF130" t="n" s="8">
         <v>2827.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>1702.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>1320.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>1152.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>33319.0</v>
@@ -14040,10 +15328,20 @@
       <c r="AF131" t="n" s="8">
         <v>38608.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>39015.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>38868.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>38883.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>34939.0</v>
@@ -14138,10 +15436,20 @@
       <c r="AF132" t="n" s="8">
         <v>41435.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>40717.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>40188.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>40035.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>7.5</v>
@@ -14236,10 +15544,20 @@
       <c r="AF133" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>1106.0</v>
@@ -14334,10 +15652,20 @@
       <c r="AF134" t="n" s="8">
         <v>1129.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>709.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>552.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>487.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>13569.0</v>
@@ -14432,10 +15760,20 @@
       <c r="AF135" t="n" s="8">
         <v>12791.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>12797.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>12579.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>12472.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>14675.0</v>
@@ -14530,10 +15868,20 @@
       <c r="AF136" t="n" s="8">
         <v>13920.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>13506.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>13131.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>12959.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>8.5</v>
@@ -14628,10 +15976,20 @@
       <c r="AF137" t="n" s="10">
         <v>9.3</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>553.0</v>
@@ -14726,10 +16084,20 @@
       <c r="AF138" t="n" s="8">
         <v>619.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>404.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>318.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>273.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>5924.0</v>
@@ -14824,10 +16192,20 @@
       <c r="AF139" t="n" s="8">
         <v>6063.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>6060.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>6145.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>6364.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>6477.0</v>
@@ -14922,10 +16300,20 @@
       <c r="AF140" t="n" s="8">
         <v>6682.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>6464.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>6463.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>6637.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>7.7</v>
@@ -15020,10 +16408,20 @@
       <c r="AF141" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>1172.0</v>
@@ -15118,10 +16516,20 @@
       <c r="AF142" t="n" s="8">
         <v>1052.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>663.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>575.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>540.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>14106.0</v>
@@ -15216,10 +16624,20 @@
       <c r="AF143" t="n" s="8">
         <v>11949.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>12032.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>12119.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>12363.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>15278.0</v>
@@ -15314,10 +16732,20 @@
       <c r="AF144" t="n" s="8">
         <v>13001.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>12695.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>12694.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>12903.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>7.7</v>
@@ -15412,10 +16840,20 @@
       <c r="AF145" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>1242.0</v>
@@ -15510,10 +16948,20 @@
       <c r="AF146" t="n" s="8">
         <v>1509.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>994.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>854.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>795.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>14982.0</v>
@@ -15608,10 +17056,20 @@
       <c r="AF147" t="n" s="8">
         <v>15890.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>16215.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>16463.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>16657.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>16224.0</v>
@@ -15706,10 +17164,20 @@
       <c r="AF148" t="n" s="8">
         <v>17399.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>17209.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>17317.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>17452.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>9.2</v>
@@ -15804,10 +17272,20 @@
       <c r="AF149" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>1083.0</v>
@@ -15902,10 +17380,20 @@
       <c r="AF150" t="n" s="8">
         <v>952.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>623.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>531.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>481.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>10671.0</v>
@@ -16000,10 +17488,20 @@
       <c r="AF151" t="n" s="8">
         <v>11756.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>12169.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>12384.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>12546.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>11754.0</v>
@@ -16098,10 +17596,20 @@
       <c r="AF152" t="n" s="8">
         <v>12708.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>12792.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>12915.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>13027.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>4.4</v>
@@ -16196,10 +17704,20 @@
       <c r="AF153" t="n" s="10">
         <v>3.9</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>652.0</v>
@@ -16294,10 +17812,20 @@
       <c r="AF154" t="n" s="8">
         <v>816.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>603.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>614.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>617.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>14144.0</v>
@@ -16392,10 +17920,20 @@
       <c r="AF155" t="n" s="8">
         <v>20068.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>20700.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>21012.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>21172.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>14796.0</v>
@@ -16490,10 +18028,20 @@
       <c r="AF156" t="n" s="8">
         <v>20884.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>21303.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>21626.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>21789.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>10.8</v>
@@ -16588,10 +18136,20 @@
       <c r="AF157" t="n" s="10">
         <v>9.5</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>3155.0</v>
@@ -16686,10 +18244,20 @@
       <c r="AF158" t="n" s="8">
         <v>2602.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>1618.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>1408.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>1246.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>26180.0</v>
@@ -16784,10 +18352,20 @@
       <c r="AF159" t="n" s="8">
         <v>24901.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>25904.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>26251.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>26562.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>29335.0</v>
@@ -16882,10 +18460,20 @@
       <c r="AF160" t="n" s="8">
         <v>27503.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>27522.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>27659.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>27808.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="7">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B161" t="n" s="10">
         <v>9.4</v>
@@ -16980,10 +18568,20 @@
       <c r="AF161" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG161" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH161" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI161" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ161"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B162" t="n" s="8">
         <v>1157.0</v>
@@ -17078,10 +18676,20 @@
       <c r="AF162" t="n" s="8">
         <v>1147.0</v>
       </c>
+      <c r="AG162" t="n" s="8">
+        <v>781.0</v>
+      </c>
+      <c r="AH162" t="n" s="8">
+        <v>612.0</v>
+      </c>
+      <c r="AI162" t="n" s="8">
+        <v>574.0</v>
+      </c>
+      <c r="AJ162"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="7">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B163" t="n" s="8">
         <v>11103.0</v>
@@ -17176,10 +18784,20 @@
       <c r="AF163" t="n" s="8">
         <v>11977.0</v>
       </c>
+      <c r="AG163" t="n" s="8">
+        <v>11778.0</v>
+      </c>
+      <c r="AH163" t="n" s="8">
+        <v>11712.0</v>
+      </c>
+      <c r="AI163" t="n" s="8">
+        <v>11992.0</v>
+      </c>
+      <c r="AJ163"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="7">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B164" t="n" s="8">
         <v>12260.0</v>
@@ -17274,10 +18892,20 @@
       <c r="AF164" t="n" s="8">
         <v>13124.0</v>
       </c>
+      <c r="AG164" t="n" s="8">
+        <v>12559.0</v>
+      </c>
+      <c r="AH164" t="n" s="8">
+        <v>12324.0</v>
+      </c>
+      <c r="AI164" t="n" s="8">
+        <v>12566.0</v>
+      </c>
+      <c r="AJ164"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="7">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B165" t="n" s="10">
         <v>6.3</v>
@@ -17372,10 +19000,20 @@
       <c r="AF165" t="n" s="10">
         <v>10.1</v>
       </c>
+      <c r="AG165" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH165" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AI165" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ165"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="7">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B166" t="n" s="8">
         <v>2057.0</v>
@@ -17470,10 +19108,20 @@
       <c r="AF166" t="n" s="8">
         <v>2769.0</v>
       </c>
+      <c r="AG166" t="n" s="8">
+        <v>1770.0</v>
+      </c>
+      <c r="AH166" t="n" s="8">
+        <v>1469.0</v>
+      </c>
+      <c r="AI166" t="n" s="8">
+        <v>1365.0</v>
+      </c>
+      <c r="AJ166"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="7">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B167" t="n" s="8">
         <v>30561.0</v>
@@ -17568,10 +19216,20 @@
       <c r="AF167" t="n" s="8">
         <v>24675.0</v>
       </c>
+      <c r="AG167" t="n" s="8">
+        <v>25242.0</v>
+      </c>
+      <c r="AH167" t="n" s="8">
+        <v>25464.0</v>
+      </c>
+      <c r="AI167" t="n" s="8">
+        <v>25408.0</v>
+      </c>
+      <c r="AJ167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B168" t="n" s="8">
         <v>32618.0</v>
@@ -17666,10 +19324,20 @@
       <c r="AF168" t="n" s="8">
         <v>27444.0</v>
       </c>
+      <c r="AG168" t="n" s="8">
+        <v>27012.0</v>
+      </c>
+      <c r="AH168" t="n" s="8">
+        <v>26933.0</v>
+      </c>
+      <c r="AI168" t="n" s="8">
+        <v>26773.0</v>
+      </c>
+      <c r="AJ168"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="7">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B169" t="n" s="10">
         <v>6.1</v>
@@ -17764,10 +19432,20 @@
       <c r="AF169" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG169" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH169" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI169" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ169"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B170" t="n" s="8">
         <v>1451.0</v>
@@ -17862,10 +19540,20 @@
       <c r="AF170" t="n" s="8">
         <v>1919.0</v>
       </c>
+      <c r="AG170" t="n" s="8">
+        <v>1269.0</v>
+      </c>
+      <c r="AH170" t="n" s="8">
+        <v>1077.0</v>
+      </c>
+      <c r="AI170" t="n" s="8">
+        <v>1022.0</v>
+      </c>
+      <c r="AJ170"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B171" t="n" s="8">
         <v>22173.0</v>
@@ -17960,10 +19648,20 @@
       <c r="AF171" t="n" s="8">
         <v>28988.0</v>
       </c>
+      <c r="AG171" t="n" s="8">
+        <v>29604.0</v>
+      </c>
+      <c r="AH171" t="n" s="8">
+        <v>29760.0</v>
+      </c>
+      <c r="AI171" t="n" s="8">
+        <v>30288.0</v>
+      </c>
+      <c r="AJ171"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B172" t="n" s="8">
         <v>23624.0</v>
@@ -18058,10 +19756,20 @@
       <c r="AF172" t="n" s="8">
         <v>30907.0</v>
       </c>
+      <c r="AG172" t="n" s="8">
+        <v>30873.0</v>
+      </c>
+      <c r="AH172" t="n" s="8">
+        <v>30837.0</v>
+      </c>
+      <c r="AI172" t="n" s="8">
+        <v>31310.0</v>
+      </c>
+      <c r="AJ172"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B173" t="n" s="10">
         <v>5.0</v>
@@ -18156,10 +19864,20 @@
       <c r="AF173" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG173" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH173" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI173" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ173"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B174" t="n" s="8">
         <v>5766.0</v>
@@ -18254,10 +19972,20 @@
       <c r="AF174" t="n" s="8">
         <v>10237.0</v>
       </c>
+      <c r="AG174" t="n" s="8">
+        <v>6059.0</v>
+      </c>
+      <c r="AH174" t="n" s="8">
+        <v>5245.0</v>
+      </c>
+      <c r="AI174" t="n" s="8">
+        <v>4228.0</v>
+      </c>
+      <c r="AJ174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B175" t="n" s="8">
         <v>110683.0</v>
@@ -18352,10 +20080,20 @@
       <c r="AF175" t="n" s="8">
         <v>112219.0</v>
       </c>
+      <c r="AG175" t="n" s="8">
+        <v>116768.0</v>
+      </c>
+      <c r="AH175" t="n" s="8">
+        <v>119559.0</v>
+      </c>
+      <c r="AI175" t="n" s="8">
+        <v>121793.0</v>
+      </c>
+      <c r="AJ175"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="7">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B176" t="n" s="8">
         <v>116449.0</v>
@@ -18450,10 +20188,20 @@
       <c r="AF176" t="n" s="8">
         <v>122456.0</v>
       </c>
+      <c r="AG176" t="n" s="8">
+        <v>122827.0</v>
+      </c>
+      <c r="AH176" t="n" s="8">
+        <v>124804.0</v>
+      </c>
+      <c r="AI176" t="n" s="8">
+        <v>126021.0</v>
+      </c>
+      <c r="AJ176"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B177" t="n" s="10">
         <v>7.1</v>
@@ -18548,10 +20296,20 @@
       <c r="AF177" t="n" s="10">
         <v>8.5</v>
       </c>
+      <c r="AG177" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH177" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI177" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ177"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B178" t="n" s="8">
         <v>1771.0</v>
@@ -18646,10 +20404,20 @@
       <c r="AF178" t="n" s="8">
         <v>2010.0</v>
       </c>
+      <c r="AG178" t="n" s="8">
+        <v>1203.0</v>
+      </c>
+      <c r="AH178" t="n" s="8">
+        <v>1079.0</v>
+      </c>
+      <c r="AI178" t="n" s="8">
+        <v>964.0</v>
+      </c>
+      <c r="AJ178"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="7">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B179" t="n" s="8">
         <v>23192.0</v>
@@ -18744,10 +20512,20 @@
       <c r="AF179" t="n" s="8">
         <v>21630.0</v>
       </c>
+      <c r="AG179" t="n" s="8">
+        <v>21837.0</v>
+      </c>
+      <c r="AH179" t="n" s="8">
+        <v>22267.0</v>
+      </c>
+      <c r="AI179" t="n" s="8">
+        <v>22554.0</v>
+      </c>
+      <c r="AJ179"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B180" t="n" s="8">
         <v>24963.0</v>
@@ -18842,10 +20620,20 @@
       <c r="AF180" t="n" s="8">
         <v>23640.0</v>
       </c>
+      <c r="AG180" t="n" s="8">
+        <v>23040.0</v>
+      </c>
+      <c r="AH180" t="n" s="8">
+        <v>23346.0</v>
+      </c>
+      <c r="AI180" t="n" s="8">
+        <v>23518.0</v>
+      </c>
+      <c r="AJ180"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="7">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B181" t="n" s="10">
         <v>5.6</v>
@@ -18940,10 +20728,20 @@
       <c r="AF181" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG181" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH181" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI181" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ181"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="7">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B182" t="n" s="8">
         <v>3679.0</v>
@@ -19038,10 +20836,20 @@
       <c r="AF182" t="n" s="8">
         <v>5933.0</v>
       </c>
+      <c r="AG182" t="n" s="8">
+        <v>3766.0</v>
+      </c>
+      <c r="AH182" t="n" s="8">
+        <v>3143.0</v>
+      </c>
+      <c r="AI182" t="n" s="8">
+        <v>2868.0</v>
+      </c>
+      <c r="AJ182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B183" t="n" s="8">
         <v>62199.0</v>
@@ -19136,10 +20944,20 @@
       <c r="AF183" t="n" s="8">
         <v>84118.0</v>
       </c>
+      <c r="AG183" t="n" s="8">
+        <v>87016.0</v>
+      </c>
+      <c r="AH183" t="n" s="8">
+        <v>88549.0</v>
+      </c>
+      <c r="AI183" t="n" s="8">
+        <v>89744.0</v>
+      </c>
+      <c r="AJ183"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B184" t="n" s="8">
         <v>65878.0</v>
@@ -19234,10 +21052,20 @@
       <c r="AF184" t="n" s="8">
         <v>90051.0</v>
       </c>
+      <c r="AG184" t="n" s="8">
+        <v>90782.0</v>
+      </c>
+      <c r="AH184" t="n" s="8">
+        <v>91692.0</v>
+      </c>
+      <c r="AI184" t="n" s="8">
+        <v>92612.0</v>
+      </c>
+      <c r="AJ184"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B185" t="n" s="10">
         <v>6.0</v>
@@ -19332,10 +21160,20 @@
       <c r="AF185" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG185" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH185" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI185" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ185"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B186" t="n" s="8">
         <v>1263.0</v>
@@ -19430,10 +21268,20 @@
       <c r="AF186" t="n" s="8">
         <v>1865.0</v>
       </c>
+      <c r="AG186" t="n" s="8">
+        <v>938.0</v>
+      </c>
+      <c r="AH186" t="n" s="8">
+        <v>779.0</v>
+      </c>
+      <c r="AI186" t="n" s="8">
+        <v>692.0</v>
+      </c>
+      <c r="AJ186"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B187" t="n" s="8">
         <v>19861.0</v>
@@ -19528,10 +21376,20 @@
       <c r="AF187" t="n" s="8">
         <v>20838.0</v>
       </c>
+      <c r="AG187" t="n" s="8">
+        <v>21377.0</v>
+      </c>
+      <c r="AH187" t="n" s="8">
+        <v>21746.0</v>
+      </c>
+      <c r="AI187" t="n" s="8">
+        <v>22139.0</v>
+      </c>
+      <c r="AJ187"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B188" t="n" s="8">
         <v>21124.0</v>
@@ -19626,10 +21484,20 @@
       <c r="AF188" t="n" s="8">
         <v>22703.0</v>
       </c>
+      <c r="AG188" t="n" s="8">
+        <v>22315.0</v>
+      </c>
+      <c r="AH188" t="n" s="8">
+        <v>22525.0</v>
+      </c>
+      <c r="AI188" t="n" s="8">
+        <v>22831.0</v>
+      </c>
+      <c r="AJ188"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="7">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B189" t="n" s="10">
         <v>7.2</v>
@@ -19724,10 +21592,20 @@
       <c r="AF189" t="n" s="10">
         <v>9.8</v>
       </c>
+      <c r="AG189" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH189" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI189" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ189"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="7">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B190" t="n" s="8">
         <v>9639.0</v>
@@ -19822,10 +21700,20 @@
       <c r="AF190" t="n" s="8">
         <v>14881.0</v>
       </c>
+      <c r="AG190" t="n" s="8">
+        <v>8406.0</v>
+      </c>
+      <c r="AH190" t="n" s="8">
+        <v>7644.0</v>
+      </c>
+      <c r="AI190" t="n" s="8">
+        <v>5899.0</v>
+      </c>
+      <c r="AJ190"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B191" t="n" s="8">
         <v>123915.0</v>
@@ -19920,10 +21808,20 @@
       <c r="AF191" t="n" s="8">
         <v>137501.0</v>
       </c>
+      <c r="AG191" t="n" s="8">
+        <v>143041.0</v>
+      </c>
+      <c r="AH191" t="n" s="8">
+        <v>146477.0</v>
+      </c>
+      <c r="AI191" t="n" s="8">
+        <v>149247.0</v>
+      </c>
+      <c r="AJ191"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="7">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B192" t="n" s="8">
         <v>133554.0</v>
@@ -20018,10 +21916,20 @@
       <c r="AF192" t="n" s="8">
         <v>152382.0</v>
       </c>
+      <c r="AG192" t="n" s="8">
+        <v>151447.0</v>
+      </c>
+      <c r="AH192" t="n" s="8">
+        <v>154121.0</v>
+      </c>
+      <c r="AI192" t="n" s="8">
+        <v>155146.0</v>
+      </c>
+      <c r="AJ192"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="7">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B193" t="n" s="10">
         <v>8.3</v>
@@ -20116,10 +22024,20 @@
       <c r="AF193" t="n" s="10">
         <v>10.3</v>
       </c>
+      <c r="AG193" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH193" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI193" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ193"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="7">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B194" t="n" s="8">
         <v>18973.0</v>
@@ -20214,10 +22132,20 @@
       <c r="AF194" t="n" s="8">
         <v>21532.0</v>
       </c>
+      <c r="AG194" t="n" s="8">
+        <v>12702.0</v>
+      </c>
+      <c r="AH194" t="n" s="8">
+        <v>8966.0</v>
+      </c>
+      <c r="AI194" t="n" s="8">
+        <v>8596.0</v>
+      </c>
+      <c r="AJ194"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="7">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B195" t="n" s="8">
         <v>210635.0</v>
@@ -20312,10 +22240,20 @@
       <c r="AF195" t="n" s="8">
         <v>186684.0</v>
       </c>
+      <c r="AG195" t="n" s="8">
+        <v>191012.0</v>
+      </c>
+      <c r="AH195" t="n" s="8">
+        <v>193865.0</v>
+      </c>
+      <c r="AI195" t="n" s="8">
+        <v>196795.0</v>
+      </c>
+      <c r="AJ195"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B196" t="n" s="8">
         <v>229608.0</v>
@@ -20410,10 +22348,20 @@
       <c r="AF196" t="n" s="8">
         <v>208216.0</v>
       </c>
+      <c r="AG196" t="n" s="8">
+        <v>203714.0</v>
+      </c>
+      <c r="AH196" t="n" s="8">
+        <v>202831.0</v>
+      </c>
+      <c r="AI196" t="n" s="8">
+        <v>205391.0</v>
+      </c>
+      <c r="AJ196"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="7">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B197" t="n" s="10">
         <v>4.3</v>
@@ -20508,10 +22456,20 @@
       <c r="AF197" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG197" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH197" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI197" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ197"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="7">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B198" t="n" s="8">
         <v>768.0</v>
@@ -20606,10 +22564,20 @@
       <c r="AF198" t="n" s="8">
         <v>1232.0</v>
       </c>
+      <c r="AG198" t="n" s="8">
+        <v>807.0</v>
+      </c>
+      <c r="AH198" t="n" s="8">
+        <v>674.0</v>
+      </c>
+      <c r="AI198" t="n" s="8">
+        <v>625.0</v>
+      </c>
+      <c r="AJ198"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="7">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B199" t="n" s="8">
         <v>17171.0</v>
@@ -20704,10 +22672,20 @@
       <c r="AF199" t="n" s="8">
         <v>19246.0</v>
       </c>
+      <c r="AG199" t="n" s="8">
+        <v>19872.0</v>
+      </c>
+      <c r="AH199" t="n" s="8">
+        <v>20235.0</v>
+      </c>
+      <c r="AI199" t="n" s="8">
+        <v>20537.0</v>
+      </c>
+      <c r="AJ199"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="7">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B200" t="n" s="8">
         <v>17939.0</v>
@@ -20802,10 +22780,20 @@
       <c r="AF200" t="n" s="8">
         <v>20478.0</v>
       </c>
+      <c r="AG200" t="n" s="8">
+        <v>20679.0</v>
+      </c>
+      <c r="AH200" t="n" s="8">
+        <v>20909.0</v>
+      </c>
+      <c r="AI200" t="n" s="8">
+        <v>21162.0</v>
+      </c>
+      <c r="AJ200"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="7">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B201" t="n" s="10">
         <v>7.4</v>
@@ -20900,10 +22888,20 @@
       <c r="AF201" t="n" s="10">
         <v>10.2</v>
       </c>
+      <c r="AG201" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH201" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI201" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ201"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="7">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B202" t="n" s="8">
         <v>8754.0</v>
@@ -20998,10 +22996,20 @@
       <c r="AF202" t="n" s="8">
         <v>10229.0</v>
       </c>
+      <c r="AG202" t="n" s="8">
+        <v>6252.0</v>
+      </c>
+      <c r="AH202" t="n" s="8">
+        <v>4699.0</v>
+      </c>
+      <c r="AI202" t="n" s="8">
+        <v>4181.0</v>
+      </c>
+      <c r="AJ202"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="7">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B203" t="n" s="8">
         <v>110207.0</v>
@@ -21096,10 +23104,20 @@
       <c r="AF203" t="n" s="8">
         <v>89896.0</v>
       </c>
+      <c r="AG203" t="n" s="8">
+        <v>91907.0</v>
+      </c>
+      <c r="AH203" t="n" s="8">
+        <v>93256.0</v>
+      </c>
+      <c r="AI203" t="n" s="8">
+        <v>94271.0</v>
+      </c>
+      <c r="AJ203"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="7">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B204" t="n" s="8">
         <v>118961.0</v>
@@ -21194,10 +23212,20 @@
       <c r="AF204" t="n" s="8">
         <v>100125.0</v>
       </c>
+      <c r="AG204" t="n" s="8">
+        <v>98159.0</v>
+      </c>
+      <c r="AH204" t="n" s="8">
+        <v>97955.0</v>
+      </c>
+      <c r="AI204" t="n" s="8">
+        <v>98452.0</v>
+      </c>
+      <c r="AJ204"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="7">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B205" t="n" s="10">
         <v>8.1</v>
@@ -21292,10 +23320,20 @@
       <c r="AF205" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG205" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH205" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI205" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ205"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="7">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B206" t="n" s="8">
         <v>2486.0</v>
@@ -21390,10 +23428,20 @@
       <c r="AF206" t="n" s="8">
         <v>2147.0</v>
       </c>
+      <c r="AG206" t="n" s="8">
+        <v>1322.0</v>
+      </c>
+      <c r="AH206" t="n" s="8">
+        <v>1205.0</v>
+      </c>
+      <c r="AI206" t="n" s="8">
+        <v>926.0</v>
+      </c>
+      <c r="AJ206"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="7">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B207" t="n" s="8">
         <v>28064.0</v>
@@ -21488,10 +23536,20 @@
       <c r="AF207" t="n" s="8">
         <v>26100.0</v>
       </c>
+      <c r="AG207" t="n" s="8">
+        <v>26388.0</v>
+      </c>
+      <c r="AH207" t="n" s="8">
+        <v>26085.0</v>
+      </c>
+      <c r="AI207" t="n" s="8">
+        <v>26061.0</v>
+      </c>
+      <c r="AJ207"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="7">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B208" t="n" s="8">
         <v>30550.0</v>
@@ -21586,10 +23644,20 @@
       <c r="AF208" t="n" s="8">
         <v>28247.0</v>
       </c>
+      <c r="AG208" t="n" s="8">
+        <v>27710.0</v>
+      </c>
+      <c r="AH208" t="n" s="8">
+        <v>27290.0</v>
+      </c>
+      <c r="AI208" t="n" s="8">
+        <v>26987.0</v>
+      </c>
+      <c r="AJ208"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="7">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B209" t="n" s="10">
         <v>4.7</v>
@@ -21684,10 +23752,20 @@
       <c r="AF209" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG209" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH209" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI209" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ209"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B210" t="n" s="8">
         <v>3008.0</v>
@@ -21782,10 +23860,20 @@
       <c r="AF210" t="n" s="8">
         <v>7199.0</v>
       </c>
+      <c r="AG210" t="n" s="8">
+        <v>4026.0</v>
+      </c>
+      <c r="AH210" t="n" s="8">
+        <v>3840.0</v>
+      </c>
+      <c r="AI210" t="n" s="8">
+        <v>3084.0</v>
+      </c>
+      <c r="AJ210"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B211" t="n" s="8">
         <v>61374.0</v>
@@ -21880,10 +23968,20 @@
       <c r="AF211" t="n" s="8">
         <v>88194.0</v>
       </c>
+      <c r="AG211" t="n" s="8">
+        <v>91780.0</v>
+      </c>
+      <c r="AH211" t="n" s="8">
+        <v>93925.0</v>
+      </c>
+      <c r="AI211" t="n" s="8">
+        <v>95667.0</v>
+      </c>
+      <c r="AJ211"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="7">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B212" t="n" s="8">
         <v>64382.0</v>
@@ -21978,10 +24076,20 @@
       <c r="AF212" t="n" s="8">
         <v>95393.0</v>
       </c>
+      <c r="AG212" t="n" s="8">
+        <v>95806.0</v>
+      </c>
+      <c r="AH212" t="n" s="8">
+        <v>97765.0</v>
+      </c>
+      <c r="AI212" t="n" s="8">
+        <v>98751.0</v>
+      </c>
+      <c r="AJ212"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="7">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B213" t="n" s="10">
         <v>7.7</v>
@@ -22076,10 +24184,20 @@
       <c r="AF213" t="n" s="10">
         <v>9.7</v>
       </c>
+      <c r="AG213" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AH213" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AI213" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AJ213"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="7">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B214" t="n" s="8">
         <v>667.0</v>
@@ -22174,10 +24292,20 @@
       <c r="AF214" t="n" s="8">
         <v>872.0</v>
       </c>
+      <c r="AG214" t="n" s="8">
+        <v>582.0</v>
+      </c>
+      <c r="AH214" t="n" s="8">
+        <v>502.0</v>
+      </c>
+      <c r="AI214" t="n" s="8">
+        <v>463.0</v>
+      </c>
+      <c r="AJ214"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="7">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B215" t="n" s="8">
         <v>7963.0</v>
@@ -22272,10 +24400,20 @@
       <c r="AF215" t="n" s="8">
         <v>8097.0</v>
       </c>
+      <c r="AG215" t="n" s="8">
+        <v>8148.0</v>
+      </c>
+      <c r="AH215" t="n" s="8">
+        <v>8056.0</v>
+      </c>
+      <c r="AI215" t="n" s="8">
+        <v>8136.0</v>
+      </c>
+      <c r="AJ215"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="7">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B216" t="n" s="8">
         <v>8630.0</v>
@@ -22370,10 +24508,20 @@
       <c r="AF216" t="n" s="8">
         <v>8969.0</v>
       </c>
+      <c r="AG216" t="n" s="8">
+        <v>8730.0</v>
+      </c>
+      <c r="AH216" t="n" s="8">
+        <v>8558.0</v>
+      </c>
+      <c r="AI216" t="n" s="8">
+        <v>8599.0</v>
+      </c>
+      <c r="AJ216"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="7">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B217" t="n" s="10">
         <v>5.7</v>
@@ -22468,10 +24616,20 @@
       <c r="AF217" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG217" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH217" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI217" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ217"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="7">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B218" t="n" s="8">
         <v>1135.0</v>
@@ -22566,10 +24724,20 @@
       <c r="AF218" t="n" s="8">
         <v>1256.0</v>
       </c>
+      <c r="AG218" t="n" s="8">
+        <v>723.0</v>
+      </c>
+      <c r="AH218" t="n" s="8">
+        <v>613.0</v>
+      </c>
+      <c r="AI218" t="n" s="8">
+        <v>519.0</v>
+      </c>
+      <c r="AJ218"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="7">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B219" t="n" s="8">
         <v>18904.0</v>
@@ -22664,10 +24832,20 @@
       <c r="AF219" t="n" s="8">
         <v>22129.0</v>
       </c>
+      <c r="AG219" t="n" s="8">
+        <v>22042.0</v>
+      </c>
+      <c r="AH219" t="n" s="8">
+        <v>22110.0</v>
+      </c>
+      <c r="AI219" t="n" s="8">
+        <v>22543.0</v>
+      </c>
+      <c r="AJ219"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="7">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B220" t="n" s="8">
         <v>20039.0</v>
@@ -22762,10 +24940,20 @@
       <c r="AF220" t="n" s="8">
         <v>23385.0</v>
       </c>
+      <c r="AG220" t="n" s="8">
+        <v>22765.0</v>
+      </c>
+      <c r="AH220" t="n" s="8">
+        <v>22723.0</v>
+      </c>
+      <c r="AI220" t="n" s="8">
+        <v>23062.0</v>
+      </c>
+      <c r="AJ220"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="7">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B221" t="n" s="10">
         <v>6.0</v>
@@ -22860,10 +25048,20 @@
       <c r="AF221" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG221" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH221" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI221" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ221"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="7">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B222" t="n" s="8">
         <v>2968.0</v>
@@ -22958,10 +25156,20 @@
       <c r="AF222" t="n" s="8">
         <v>3773.0</v>
       </c>
+      <c r="AG222" t="n" s="8">
+        <v>2297.0</v>
+      </c>
+      <c r="AH222" t="n" s="8">
+        <v>1895.0</v>
+      </c>
+      <c r="AI222" t="n" s="8">
+        <v>1727.0</v>
+      </c>
+      <c r="AJ222"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="7">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B223" t="n" s="8">
         <v>46486.0</v>
@@ -23056,10 +25264,20 @@
       <c r="AF223" t="n" s="8">
         <v>49964.0</v>
       </c>
+      <c r="AG223" t="n" s="8">
+        <v>50704.0</v>
+      </c>
+      <c r="AH223" t="n" s="8">
+        <v>51250.0</v>
+      </c>
+      <c r="AI223" t="n" s="8">
+        <v>51881.0</v>
+      </c>
+      <c r="AJ223"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="7">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B224" t="n" s="8">
         <v>49454.0</v>
@@ -23154,10 +25372,20 @@
       <c r="AF224" t="n" s="8">
         <v>53737.0</v>
       </c>
+      <c r="AG224" t="n" s="8">
+        <v>53001.0</v>
+      </c>
+      <c r="AH224" t="n" s="8">
+        <v>53145.0</v>
+      </c>
+      <c r="AI224" t="n" s="8">
+        <v>53608.0</v>
+      </c>
+      <c r="AJ224"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="7">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B225" t="n" s="10">
         <v>8.9</v>
@@ -23252,10 +25480,20 @@
       <c r="AF225" t="n" s="10">
         <v>10.7</v>
       </c>
+      <c r="AG225" t="n" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="AH225" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AI225" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AJ225"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="7">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B226" t="n" s="8">
         <v>545.0</v>
@@ -23350,10 +25588,20 @@
       <c r="AF226" t="n" s="8">
         <v>604.0</v>
       </c>
+      <c r="AG226" t="n" s="8">
+        <v>389.0</v>
+      </c>
+      <c r="AH226" t="n" s="8">
+        <v>327.0</v>
+      </c>
+      <c r="AI226" t="n" s="8">
+        <v>286.0</v>
+      </c>
+      <c r="AJ226"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="7">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B227" t="n" s="8">
         <v>5603.0</v>
@@ -23448,10 +25696,20 @@
       <c r="AF227" t="n" s="8">
         <v>5052.0</v>
       </c>
+      <c r="AG227" t="n" s="8">
+        <v>4872.0</v>
+      </c>
+      <c r="AH227" t="n" s="8">
+        <v>4798.0</v>
+      </c>
+      <c r="AI227" t="n" s="8">
+        <v>4900.0</v>
+      </c>
+      <c r="AJ227"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="7">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B228" t="n" s="8">
         <v>6148.0</v>
@@ -23546,10 +25804,20 @@
       <c r="AF228" t="n" s="8">
         <v>5656.0</v>
       </c>
+      <c r="AG228" t="n" s="8">
+        <v>5261.0</v>
+      </c>
+      <c r="AH228" t="n" s="8">
+        <v>5125.0</v>
+      </c>
+      <c r="AI228" t="n" s="8">
+        <v>5186.0</v>
+      </c>
+      <c r="AJ228"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="7">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B229" t="n" s="10">
         <v>5.2</v>
@@ -23644,10 +25912,20 @@
       <c r="AF229" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG229" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH229" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI229" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ229"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="7">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B230" t="n" s="8">
         <v>14953.0</v>
@@ -23742,10 +26020,20 @@
       <c r="AF230" t="n" s="8">
         <v>21753.0</v>
       </c>
+      <c r="AG230" t="n" s="8">
+        <v>13837.0</v>
+      </c>
+      <c r="AH230" t="n" s="8">
+        <v>10050.0</v>
+      </c>
+      <c r="AI230" t="n" s="8">
+        <v>9367.0</v>
+      </c>
+      <c r="AJ230"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="7">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B231" t="n" s="8">
         <v>274538.0</v>
@@ -23840,10 +26128,20 @@
       <c r="AF231" t="n" s="8">
         <v>228600.0</v>
       </c>
+      <c r="AG231" t="n" s="8">
+        <v>232159.0</v>
+      </c>
+      <c r="AH231" t="n" s="8">
+        <v>234562.0</v>
+      </c>
+      <c r="AI231" t="n" s="8">
+        <v>237282.0</v>
+      </c>
+      <c r="AJ231"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="7">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B232" t="n" s="8">
         <v>289491.0</v>
@@ -23938,10 +26236,20 @@
       <c r="AF232" t="n" s="8">
         <v>250353.0</v>
       </c>
+      <c r="AG232" t="n" s="8">
+        <v>245996.0</v>
+      </c>
+      <c r="AH232" t="n" s="8">
+        <v>244612.0</v>
+      </c>
+      <c r="AI232" t="n" s="8">
+        <v>246649.0</v>
+      </c>
+      <c r="AJ232"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="7">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B233" t="n" s="10">
         <v>9.5</v>
@@ -24036,10 +26344,20 @@
       <c r="AF233" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG233" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH233" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AI233" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ233"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="7">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B234" t="n" s="8">
         <v>542.0</v>
@@ -24134,10 +26452,20 @@
       <c r="AF234" t="n" s="8">
         <v>616.0</v>
       </c>
+      <c r="AG234" t="n" s="8">
+        <v>421.0</v>
+      </c>
+      <c r="AH234" t="n" s="8">
+        <v>360.0</v>
+      </c>
+      <c r="AI234" t="n" s="8">
+        <v>306.0</v>
+      </c>
+      <c r="AJ234"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="7">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B235" t="n" s="8">
         <v>5142.0</v>
@@ -24232,10 +26560,20 @@
       <c r="AF235" t="n" s="8">
         <v>6066.0</v>
       </c>
+      <c r="AG235" t="n" s="8">
+        <v>6295.0</v>
+      </c>
+      <c r="AH235" t="n" s="8">
+        <v>6401.0</v>
+      </c>
+      <c r="AI235" t="n" s="8">
+        <v>6566.0</v>
+      </c>
+      <c r="AJ235"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="7">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B236" t="n" s="8">
         <v>5684.0</v>
@@ -24330,10 +26668,20 @@
       <c r="AF236" t="n" s="8">
         <v>6682.0</v>
       </c>
+      <c r="AG236" t="n" s="8">
+        <v>6716.0</v>
+      </c>
+      <c r="AH236" t="n" s="8">
+        <v>6761.0</v>
+      </c>
+      <c r="AI236" t="n" s="8">
+        <v>6872.0</v>
+      </c>
+      <c r="AJ236"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="7">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B237" t="n" s="10">
         <v>6.7</v>
@@ -24428,10 +26776,20 @@
       <c r="AF237" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG237" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH237" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI237" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ237"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="7">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B238" t="n" s="8">
         <v>929.0</v>
@@ -24526,10 +26884,20 @@
       <c r="AF238" t="n" s="8">
         <v>1201.0</v>
       </c>
+      <c r="AG238" t="n" s="8">
+        <v>768.0</v>
+      </c>
+      <c r="AH238" t="n" s="8">
+        <v>663.0</v>
+      </c>
+      <c r="AI238" t="n" s="8">
+        <v>599.0</v>
+      </c>
+      <c r="AJ238"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="7">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B239" t="n" s="8">
         <v>12986.0</v>
@@ -24624,10 +26992,20 @@
       <c r="AF239" t="n" s="8">
         <v>15499.0</v>
       </c>
+      <c r="AG239" t="n" s="8">
+        <v>16035.0</v>
+      </c>
+      <c r="AH239" t="n" s="8">
+        <v>16305.0</v>
+      </c>
+      <c r="AI239" t="n" s="8">
+        <v>16519.0</v>
+      </c>
+      <c r="AJ239"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="7">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B240" t="n" s="8">
         <v>13915.0</v>
@@ -24722,10 +27100,20 @@
       <c r="AF240" t="n" s="8">
         <v>16700.0</v>
       </c>
+      <c r="AG240" t="n" s="8">
+        <v>16803.0</v>
+      </c>
+      <c r="AH240" t="n" s="8">
+        <v>16968.0</v>
+      </c>
+      <c r="AI240" t="n" s="8">
+        <v>17118.0</v>
+      </c>
+      <c r="AJ240"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="7">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B241" t="n" s="10">
         <v>9.7</v>
@@ -24820,10 +27208,20 @@
       <c r="AF241" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG241" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH241" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI241" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ241"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="7">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B242" t="n" s="8">
         <v>3920.0</v>
@@ -24918,10 +27316,20 @@
       <c r="AF242" t="n" s="8">
         <v>3124.0</v>
       </c>
+      <c r="AG242" t="n" s="8">
+        <v>2082.0</v>
+      </c>
+      <c r="AH242" t="n" s="8">
+        <v>1746.0</v>
+      </c>
+      <c r="AI242" t="n" s="8">
+        <v>1562.0</v>
+      </c>
+      <c r="AJ242"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="7">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B243" t="n" s="8">
         <v>36392.0</v>
@@ -25016,10 +27424,20 @@
       <c r="AF243" t="n" s="8">
         <v>37075.0</v>
       </c>
+      <c r="AG243" t="n" s="8">
+        <v>38231.0</v>
+      </c>
+      <c r="AH243" t="n" s="8">
+        <v>38790.0</v>
+      </c>
+      <c r="AI243" t="n" s="8">
+        <v>39718.0</v>
+      </c>
+      <c r="AJ243"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="7">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B244" t="n" s="8">
         <v>40312.0</v>
@@ -25114,10 +27532,20 @@
       <c r="AF244" t="n" s="8">
         <v>40199.0</v>
       </c>
+      <c r="AG244" t="n" s="8">
+        <v>40313.0</v>
+      </c>
+      <c r="AH244" t="n" s="8">
+        <v>40536.0</v>
+      </c>
+      <c r="AI244" t="n" s="8">
+        <v>41280.0</v>
+      </c>
+      <c r="AJ244"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="7">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B245" t="n" s="10">
         <v>7.9</v>
@@ -25212,10 +27640,20 @@
       <c r="AF245" t="n" s="10">
         <v>9.7</v>
       </c>
+      <c r="AG245" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AH245" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AI245" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AJ245"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="7">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B246" t="n" s="8">
         <v>386.0</v>
@@ -25310,10 +27748,20 @@
       <c r="AF246" t="n" s="8">
         <v>449.0</v>
       </c>
+      <c r="AG246" t="n" s="8">
+        <v>313.0</v>
+      </c>
+      <c r="AH246" t="n" s="8">
+        <v>276.0</v>
+      </c>
+      <c r="AI246" t="n" s="8">
+        <v>225.0</v>
+      </c>
+      <c r="AJ246"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="7">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B247" t="n" s="8">
         <v>4496.0</v>
@@ -25408,10 +27856,20 @@
       <c r="AF247" t="n" s="8">
         <v>4187.0</v>
       </c>
+      <c r="AG247" t="n" s="8">
+        <v>4292.0</v>
+      </c>
+      <c r="AH247" t="n" s="8">
+        <v>4307.0</v>
+      </c>
+      <c r="AI247" t="n" s="8">
+        <v>4359.0</v>
+      </c>
+      <c r="AJ247"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="7">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B248" t="n" s="8">
         <v>4882.0</v>
@@ -25506,10 +27964,20 @@
       <c r="AF248" t="n" s="8">
         <v>4636.0</v>
       </c>
+      <c r="AG248" t="n" s="8">
+        <v>4605.0</v>
+      </c>
+      <c r="AH248" t="n" s="8">
+        <v>4583.0</v>
+      </c>
+      <c r="AI248" t="n" s="8">
+        <v>4584.0</v>
+      </c>
+      <c r="AJ248"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="7">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B249" t="n" s="10">
         <v>8.2</v>
@@ -25604,10 +28072,20 @@
       <c r="AF249" t="n" s="10">
         <v>9.1</v>
       </c>
+      <c r="AG249" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH249" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AI249" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ249"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="7">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B250" t="n" s="8">
         <v>1773.0</v>
@@ -25702,10 +28180,20 @@
       <c r="AF250" t="n" s="8">
         <v>1875.0</v>
       </c>
+      <c r="AG250" t="n" s="8">
+        <v>1254.0</v>
+      </c>
+      <c r="AH250" t="n" s="8">
+        <v>1073.0</v>
+      </c>
+      <c r="AI250" t="n" s="8">
+        <v>994.0</v>
+      </c>
+      <c r="AJ250"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="7">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B251" t="n" s="8">
         <v>19802.0</v>
@@ -25800,10 +28288,20 @@
       <c r="AF251" t="n" s="8">
         <v>18696.0</v>
       </c>
+      <c r="AG251" t="n" s="8">
+        <v>19221.0</v>
+      </c>
+      <c r="AH251" t="n" s="8">
+        <v>19421.0</v>
+      </c>
+      <c r="AI251" t="n" s="8">
+        <v>19796.0</v>
+      </c>
+      <c r="AJ251"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="7">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B252" t="n" s="8">
         <v>21575.0</v>
@@ -25898,10 +28396,20 @@
       <c r="AF252" t="n" s="8">
         <v>20571.0</v>
       </c>
+      <c r="AG252" t="n" s="8">
+        <v>20475.0</v>
+      </c>
+      <c r="AH252" t="n" s="8">
+        <v>20494.0</v>
+      </c>
+      <c r="AI252" t="n" s="8">
+        <v>20790.0</v>
+      </c>
+      <c r="AJ252"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="7">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B253" t="n" s="10">
         <v>7.0</v>
@@ -25996,10 +28504,20 @@
       <c r="AF253" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG253" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH253" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI253" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ253"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="7">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B254" t="n" s="8">
         <v>687.0</v>
@@ -26094,10 +28612,20 @@
       <c r="AF254" t="n" s="8">
         <v>649.0</v>
       </c>
+      <c r="AG254" t="n" s="8">
+        <v>373.0</v>
+      </c>
+      <c r="AH254" t="n" s="8">
+        <v>303.0</v>
+      </c>
+      <c r="AI254" t="n" s="8">
+        <v>269.0</v>
+      </c>
+      <c r="AJ254"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="7">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B255" t="n" s="8">
         <v>9186.0</v>
@@ -26192,10 +28720,20 @@
       <c r="AF255" t="n" s="8">
         <v>8035.0</v>
       </c>
+      <c r="AG255" t="n" s="8">
+        <v>8183.0</v>
+      </c>
+      <c r="AH255" t="n" s="8">
+        <v>8342.0</v>
+      </c>
+      <c r="AI255" t="n" s="8">
+        <v>8512.0</v>
+      </c>
+      <c r="AJ255"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="7">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B256" t="n" s="8">
         <v>9873.0</v>
@@ -26290,10 +28828,20 @@
       <c r="AF256" t="n" s="8">
         <v>8684.0</v>
       </c>
+      <c r="AG256" t="n" s="8">
+        <v>8556.0</v>
+      </c>
+      <c r="AH256" t="n" s="8">
+        <v>8645.0</v>
+      </c>
+      <c r="AI256" t="n" s="8">
+        <v>8781.0</v>
+      </c>
+      <c r="AJ256"/>
     </row>
     <row r="257">
       <c r="A257" t="s" s="7">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B257" t="n" s="10">
         <v>13.0</v>
@@ -26388,10 +28936,20 @@
       <c r="AF257" t="n" s="10">
         <v>8.5</v>
       </c>
+      <c r="AG257" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH257" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI257" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ257"/>
     </row>
     <row r="258">
       <c r="A258" t="s" s="7">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B258" t="n" s="8">
         <v>1883.0</v>
@@ -26486,10 +29044,20 @@
       <c r="AF258" t="n" s="8">
         <v>1339.0</v>
       </c>
+      <c r="AG258" t="n" s="8">
+        <v>889.0</v>
+      </c>
+      <c r="AH258" t="n" s="8">
+        <v>702.0</v>
+      </c>
+      <c r="AI258" t="n" s="8">
+        <v>647.0</v>
+      </c>
+      <c r="AJ258"/>
     </row>
     <row r="259">
       <c r="A259" t="s" s="7">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B259" t="n" s="8">
         <v>12641.0</v>
@@ -26584,10 +29152,20 @@
       <c r="AF259" t="n" s="8">
         <v>14442.0</v>
       </c>
+      <c r="AG259" t="n" s="8">
+        <v>14928.0</v>
+      </c>
+      <c r="AH259" t="n" s="8">
+        <v>15209.0</v>
+      </c>
+      <c r="AI259" t="n" s="8">
+        <v>15429.0</v>
+      </c>
+      <c r="AJ259"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="7">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B260" t="n" s="8">
         <v>14524.0</v>
@@ -26682,10 +29260,20 @@
       <c r="AF260" t="n" s="8">
         <v>15781.0</v>
       </c>
+      <c r="AG260" t="n" s="8">
+        <v>15817.0</v>
+      </c>
+      <c r="AH260" t="n" s="8">
+        <v>15911.0</v>
+      </c>
+      <c r="AI260" t="n" s="8">
+        <v>16076.0</v>
+      </c>
+      <c r="AJ260"/>
     </row>
     <row r="261">
       <c r="A261" t="s" s="7">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B261" t="n" s="10">
         <v>5.2</v>
@@ -26780,10 +29368,20 @@
       <c r="AF261" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG261" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH261" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI261" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ261"/>
     </row>
     <row r="262">
       <c r="A262" t="s" s="7">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B262" t="n" s="8">
         <v>1126.0</v>
@@ -26878,10 +29476,20 @@
       <c r="AF262" t="n" s="8">
         <v>1799.0</v>
       </c>
+      <c r="AG262" t="n" s="8">
+        <v>1196.0</v>
+      </c>
+      <c r="AH262" t="n" s="8">
+        <v>993.0</v>
+      </c>
+      <c r="AI262" t="n" s="8">
+        <v>891.0</v>
+      </c>
+      <c r="AJ262"/>
     </row>
     <row r="263">
       <c r="A263" t="s" s="7">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B263" t="n" s="8">
         <v>20539.0</v>
@@ -26976,10 +29584,20 @@
       <c r="AF263" t="n" s="8">
         <v>24456.0</v>
       </c>
+      <c r="AG263" t="n" s="8">
+        <v>25279.0</v>
+      </c>
+      <c r="AH263" t="n" s="8">
+        <v>25734.0</v>
+      </c>
+      <c r="AI263" t="n" s="8">
+        <v>26098.0</v>
+      </c>
+      <c r="AJ263"/>
     </row>
     <row r="264">
       <c r="A264" t="s" s="7">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B264" t="n" s="8">
         <v>21665.0</v>
@@ -27074,10 +29692,20 @@
       <c r="AF264" t="n" s="8">
         <v>26255.0</v>
       </c>
+      <c r="AG264" t="n" s="8">
+        <v>26475.0</v>
+      </c>
+      <c r="AH264" t="n" s="8">
+        <v>26727.0</v>
+      </c>
+      <c r="AI264" t="n" s="8">
+        <v>26989.0</v>
+      </c>
+      <c r="AJ264"/>
     </row>
     <row r="265">
       <c r="A265" t="s" s="7">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B265" t="n" s="10">
         <v>9.9</v>
@@ -27172,10 +29800,20 @@
       <c r="AF265" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG265" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH265" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI265" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ265"/>
     </row>
     <row r="266">
       <c r="A266" t="s" s="7">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B266" t="n" s="8">
         <v>931.0</v>
@@ -27270,10 +29908,20 @@
       <c r="AF266" t="n" s="8">
         <v>1019.0</v>
       </c>
+      <c r="AG266" t="n" s="8">
+        <v>688.0</v>
+      </c>
+      <c r="AH266" t="n" s="8">
+        <v>558.0</v>
+      </c>
+      <c r="AI266" t="n" s="8">
+        <v>521.0</v>
+      </c>
+      <c r="AJ266"/>
     </row>
     <row r="267">
       <c r="A267" t="s" s="7">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B267" t="n" s="8">
         <v>8428.0</v>
@@ -27368,10 +30016,20 @@
       <c r="AF267" t="n" s="8">
         <v>9839.0</v>
       </c>
+      <c r="AG267" t="n" s="8">
+        <v>10130.0</v>
+      </c>
+      <c r="AH267" t="n" s="8">
+        <v>10466.0</v>
+      </c>
+      <c r="AI267" t="n" s="8">
+        <v>10693.0</v>
+      </c>
+      <c r="AJ267"/>
     </row>
     <row r="268">
       <c r="A268" t="s" s="7">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B268" t="n" s="8">
         <v>9359.0</v>
@@ -27466,10 +30124,20 @@
       <c r="AF268" t="n" s="8">
         <v>10858.0</v>
       </c>
+      <c r="AG268" t="n" s="8">
+        <v>10818.0</v>
+      </c>
+      <c r="AH268" t="n" s="8">
+        <v>11024.0</v>
+      </c>
+      <c r="AI268" t="n" s="8">
+        <v>11214.0</v>
+      </c>
+      <c r="AJ268"/>
     </row>
     <row r="269">
       <c r="A269" t="s" s="7">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B269" t="n" s="10">
         <v>5.3</v>
@@ -27564,10 +30232,20 @@
       <c r="AF269" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG269" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH269" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI269" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ269"/>
     </row>
     <row r="270">
       <c r="A270" t="s" s="7">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B270" t="n" s="8">
         <v>4036.0</v>
@@ -27662,10 +30340,20 @@
       <c r="AF270" t="n" s="8">
         <v>6222.0</v>
       </c>
+      <c r="AG270" t="n" s="8">
+        <v>4022.0</v>
+      </c>
+      <c r="AH270" t="n" s="8">
+        <v>3248.0</v>
+      </c>
+      <c r="AI270" t="n" s="8">
+        <v>2970.0</v>
+      </c>
+      <c r="AJ270"/>
     </row>
     <row r="271">
       <c r="A271" t="s" s="7">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B271" t="n" s="8">
         <v>71568.0</v>
@@ -27760,10 +30448,20 @@
       <c r="AF271" t="n" s="8">
         <v>78952.0</v>
       </c>
+      <c r="AG271" t="n" s="8">
+        <v>80349.0</v>
+      </c>
+      <c r="AH271" t="n" s="8">
+        <v>81995.0</v>
+      </c>
+      <c r="AI271" t="n" s="8">
+        <v>83050.0</v>
+      </c>
+      <c r="AJ271"/>
     </row>
     <row r="272">
       <c r="A272" t="s" s="7">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B272" t="n" s="8">
         <v>75604.0</v>
@@ -27858,10 +30556,20 @@
       <c r="AF272" t="n" s="8">
         <v>85174.0</v>
       </c>
+      <c r="AG272" t="n" s="8">
+        <v>84371.0</v>
+      </c>
+      <c r="AH272" t="n" s="8">
+        <v>85243.0</v>
+      </c>
+      <c r="AI272" t="n" s="8">
+        <v>86020.0</v>
+      </c>
+      <c r="AJ272"/>
     </row>
     <row r="273">
       <c r="A273" t="s" s="7">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B273" t="n" s="10">
         <v>6.0</v>
@@ -27956,10 +30664,20 @@
       <c r="AF273" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG273" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH273" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI273" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ273"/>
     </row>
     <row r="274">
       <c r="A274" t="s" s="7">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B274" t="n" s="8">
         <v>1197.0</v>
@@ -28054,10 +30772,20 @@
       <c r="AF274" t="n" s="8">
         <v>1425.0</v>
       </c>
+      <c r="AG274" t="n" s="8">
+        <v>872.0</v>
+      </c>
+      <c r="AH274" t="n" s="8">
+        <v>734.0</v>
+      </c>
+      <c r="AI274" t="n" s="8">
+        <v>668.0</v>
+      </c>
+      <c r="AJ274"/>
     </row>
     <row r="275">
       <c r="A275" t="s" s="7">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B275" t="n" s="8">
         <v>18644.0</v>
@@ -28152,10 +30880,20 @@
       <c r="AF275" t="n" s="8">
         <v>19578.0</v>
       </c>
+      <c r="AG275" t="n" s="8">
+        <v>20526.0</v>
+      </c>
+      <c r="AH275" t="n" s="8">
+        <v>21045.0</v>
+      </c>
+      <c r="AI275" t="n" s="8">
+        <v>21015.0</v>
+      </c>
+      <c r="AJ275"/>
     </row>
     <row r="276">
       <c r="A276" t="s" s="7">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B276" t="n" s="8">
         <v>19841.0</v>
@@ -28250,10 +30988,20 @@
       <c r="AF276" t="n" s="8">
         <v>21003.0</v>
       </c>
+      <c r="AG276" t="n" s="8">
+        <v>21398.0</v>
+      </c>
+      <c r="AH276" t="n" s="8">
+        <v>21779.0</v>
+      </c>
+      <c r="AI276" t="n" s="8">
+        <v>21683.0</v>
+      </c>
+      <c r="AJ276"/>
     </row>
     <row r="277">
       <c r="A277" t="s" s="7">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B277" t="n" s="10">
         <v>7.0</v>
@@ -28348,10 +31096,20 @@
       <c r="AF277" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG277" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH277" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI277" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ277"/>
     </row>
     <row r="278">
       <c r="A278" t="s" s="7">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B278" t="n" s="8">
         <v>1211.0</v>
@@ -28446,10 +31204,20 @@
       <c r="AF278" t="n" s="8">
         <v>1037.0</v>
       </c>
+      <c r="AG278" t="n" s="8">
+        <v>645.0</v>
+      </c>
+      <c r="AH278" t="n" s="8">
+        <v>570.0</v>
+      </c>
+      <c r="AI278" t="n" s="8">
+        <v>497.0</v>
+      </c>
+      <c r="AJ278"/>
     </row>
     <row r="279">
       <c r="A279" t="s" s="7">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B279" t="n" s="8">
         <v>16075.0</v>
@@ -28544,10 +31312,20 @@
       <c r="AF279" t="n" s="8">
         <v>17496.0</v>
       </c>
+      <c r="AG279" t="n" s="8">
+        <v>18069.0</v>
+      </c>
+      <c r="AH279" t="n" s="8">
+        <v>18236.0</v>
+      </c>
+      <c r="AI279" t="n" s="8">
+        <v>18395.0</v>
+      </c>
+      <c r="AJ279"/>
     </row>
     <row r="280">
       <c r="A280" t="s" s="7">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B280" t="n" s="8">
         <v>17286.0</v>
@@ -28642,10 +31420,20 @@
       <c r="AF280" t="n" s="8">
         <v>18533.0</v>
       </c>
+      <c r="AG280" t="n" s="8">
+        <v>18714.0</v>
+      </c>
+      <c r="AH280" t="n" s="8">
+        <v>18806.0</v>
+      </c>
+      <c r="AI280" t="n" s="8">
+        <v>18892.0</v>
+      </c>
+      <c r="AJ280"/>
     </row>
     <row r="281">
       <c r="A281" t="s" s="7">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B281" t="n" s="10">
         <v>8.2</v>
@@ -28740,10 +31528,20 @@
       <c r="AF281" t="n" s="10">
         <v>9.0</v>
       </c>
+      <c r="AG281" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH281" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI281" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ281"/>
     </row>
     <row r="282">
       <c r="A282" t="s" s="7">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B282" t="n" s="8">
         <v>5155.0</v>
@@ -28838,10 +31636,20 @@
       <c r="AF282" t="n" s="8">
         <v>4646.0</v>
       </c>
+      <c r="AG282" t="n" s="8">
+        <v>2874.0</v>
+      </c>
+      <c r="AH282" t="n" s="8">
+        <v>2281.0</v>
+      </c>
+      <c r="AI282" t="n" s="8">
+        <v>2099.0</v>
+      </c>
+      <c r="AJ282"/>
     </row>
     <row r="283">
       <c r="A283" t="s" s="7">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B283" t="n" s="8">
         <v>57724.0</v>
@@ -28936,10 +31744,20 @@
       <c r="AF283" t="n" s="8">
         <v>47036.0</v>
       </c>
+      <c r="AG283" t="n" s="8">
+        <v>48219.0</v>
+      </c>
+      <c r="AH283" t="n" s="8">
+        <v>48141.0</v>
+      </c>
+      <c r="AI283" t="n" s="8">
+        <v>48502.0</v>
+      </c>
+      <c r="AJ283"/>
     </row>
     <row r="284">
       <c r="A284" t="s" s="7">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B284" t="n" s="8">
         <v>62879.0</v>
@@ -29034,10 +31852,20 @@
       <c r="AF284" t="n" s="8">
         <v>51682.0</v>
       </c>
+      <c r="AG284" t="n" s="8">
+        <v>51093.0</v>
+      </c>
+      <c r="AH284" t="n" s="8">
+        <v>50422.0</v>
+      </c>
+      <c r="AI284" t="n" s="8">
+        <v>50601.0</v>
+      </c>
+      <c r="AJ284"/>
     </row>
     <row r="285">
       <c r="A285" t="s" s="7">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B285" t="n" s="10">
         <v>8.3</v>
@@ -29132,10 +31960,20 @@
       <c r="AF285" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG285" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH285" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI285" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ285"/>
     </row>
     <row r="286">
       <c r="A286" t="s" s="7">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B286" t="n" s="8">
         <v>2485.0</v>
@@ -29230,10 +32068,20 @@
       <c r="AF286" t="n" s="8">
         <v>2815.0</v>
       </c>
+      <c r="AG286" t="n" s="8">
+        <v>1710.0</v>
+      </c>
+      <c r="AH286" t="n" s="8">
+        <v>1344.0</v>
+      </c>
+      <c r="AI286" t="n" s="8">
+        <v>1198.0</v>
+      </c>
+      <c r="AJ286"/>
     </row>
     <row r="287">
       <c r="A287" t="s" s="7">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B287" t="n" s="8">
         <v>27328.0</v>
@@ -29328,10 +32176,20 @@
       <c r="AF287" t="n" s="8">
         <v>32374.0</v>
       </c>
+      <c r="AG287" t="n" s="8">
+        <v>33207.0</v>
+      </c>
+      <c r="AH287" t="n" s="8">
+        <v>33744.0</v>
+      </c>
+      <c r="AI287" t="n" s="8">
+        <v>34246.0</v>
+      </c>
+      <c r="AJ287"/>
     </row>
     <row r="288">
       <c r="A288" t="s" s="7">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B288" t="n" s="8">
         <v>29813.0</v>
@@ -29426,10 +32284,20 @@
       <c r="AF288" t="n" s="8">
         <v>35189.0</v>
       </c>
+      <c r="AG288" t="n" s="8">
+        <v>34917.0</v>
+      </c>
+      <c r="AH288" t="n" s="8">
+        <v>35088.0</v>
+      </c>
+      <c r="AI288" t="n" s="8">
+        <v>35444.0</v>
+      </c>
+      <c r="AJ288"/>
     </row>
     <row r="289">
       <c r="A289" t="s" s="7">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B289" t="n" s="10">
         <v>8.0</v>
@@ -29524,10 +32392,20 @@
       <c r="AF289" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG289" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH289" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI289" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ289"/>
     </row>
     <row r="290">
       <c r="A290" t="s" s="7">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B290" t="n" s="8">
         <v>2556.0</v>
@@ -29622,10 +32500,20 @@
       <c r="AF290" t="n" s="8">
         <v>2432.0</v>
       </c>
+      <c r="AG290" t="n" s="8">
+        <v>1588.0</v>
+      </c>
+      <c r="AH290" t="n" s="8">
+        <v>1408.0</v>
+      </c>
+      <c r="AI290" t="n" s="8">
+        <v>1059.0</v>
+      </c>
+      <c r="AJ290"/>
     </row>
     <row r="291">
       <c r="A291" t="s" s="7">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B291" t="n" s="8">
         <v>29222.0</v>
@@ -29720,10 +32608,20 @@
       <c r="AF291" t="n" s="8">
         <v>27555.0</v>
       </c>
+      <c r="AG291" t="n" s="8">
+        <v>28531.0</v>
+      </c>
+      <c r="AH291" t="n" s="8">
+        <v>28496.0</v>
+      </c>
+      <c r="AI291" t="n" s="8">
+        <v>28904.0</v>
+      </c>
+      <c r="AJ291"/>
     </row>
     <row r="292">
       <c r="A292" t="s" s="7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B292" t="n" s="8">
         <v>31778.0</v>
@@ -29818,10 +32716,20 @@
       <c r="AF292" t="n" s="8">
         <v>29987.0</v>
       </c>
+      <c r="AG292" t="n" s="8">
+        <v>30119.0</v>
+      </c>
+      <c r="AH292" t="n" s="8">
+        <v>29904.0</v>
+      </c>
+      <c r="AI292" t="n" s="8">
+        <v>29963.0</v>
+      </c>
+      <c r="AJ292"/>
     </row>
     <row r="293">
       <c r="A293" t="s" s="7">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B293" t="n" s="10">
         <v>9.5</v>
@@ -29916,10 +32824,20 @@
       <c r="AF293" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG293" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH293" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI293" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ293"/>
     </row>
     <row r="294">
       <c r="A294" t="s" s="7">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B294" t="n" s="8">
         <v>2797.0</v>
@@ -30014,10 +32932,20 @@
       <c r="AF294" t="n" s="8">
         <v>2533.0</v>
       </c>
+      <c r="AG294" t="n" s="8">
+        <v>1819.0</v>
+      </c>
+      <c r="AH294" t="n" s="8">
+        <v>1481.0</v>
+      </c>
+      <c r="AI294" t="n" s="8">
+        <v>1421.0</v>
+      </c>
+      <c r="AJ294"/>
     </row>
     <row r="295">
       <c r="A295" t="s" s="7">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B295" t="n" s="8">
         <v>26534.0</v>
@@ -30112,10 +33040,20 @@
       <c r="AF295" t="n" s="8">
         <v>26552.0</v>
       </c>
+      <c r="AG295" t="n" s="8">
+        <v>27299.0</v>
+      </c>
+      <c r="AH295" t="n" s="8">
+        <v>27738.0</v>
+      </c>
+      <c r="AI295" t="n" s="8">
+        <v>28163.0</v>
+      </c>
+      <c r="AJ295"/>
     </row>
     <row r="296">
       <c r="A296" t="s" s="7">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B296" t="n" s="8">
         <v>29331.0</v>
@@ -30210,10 +33148,20 @@
       <c r="AF296" t="n" s="8">
         <v>29085.0</v>
       </c>
+      <c r="AG296" t="n" s="8">
+        <v>29118.0</v>
+      </c>
+      <c r="AH296" t="n" s="8">
+        <v>29219.0</v>
+      </c>
+      <c r="AI296" t="n" s="8">
+        <v>29584.0</v>
+      </c>
+      <c r="AJ296"/>
     </row>
     <row r="297">
       <c r="A297" t="s" s="7">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B297" t="n" s="10">
         <v>8.1</v>
@@ -30308,10 +33256,20 @@
       <c r="AF297" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG297" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH297" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI297" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ297"/>
     </row>
     <row r="298">
       <c r="A298" t="s" s="7">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B298" t="n" s="8">
         <v>2432.0</v>
@@ -30406,10 +33364,20 @@
       <c r="AF298" t="n" s="8">
         <v>2197.0</v>
       </c>
+      <c r="AG298" t="n" s="8">
+        <v>1273.0</v>
+      </c>
+      <c r="AH298" t="n" s="8">
+        <v>1096.0</v>
+      </c>
+      <c r="AI298" t="n" s="8">
+        <v>949.0</v>
+      </c>
+      <c r="AJ298"/>
     </row>
     <row r="299">
       <c r="A299" t="s" s="7">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B299" t="n" s="8">
         <v>27413.0</v>
@@ -30504,10 +33472,20 @@
       <c r="AF299" t="n" s="8">
         <v>24917.0</v>
       </c>
+      <c r="AG299" t="n" s="8">
+        <v>25255.0</v>
+      </c>
+      <c r="AH299" t="n" s="8">
+        <v>25195.0</v>
+      </c>
+      <c r="AI299" t="n" s="8">
+        <v>25512.0</v>
+      </c>
+      <c r="AJ299"/>
     </row>
     <row r="300">
       <c r="A300" t="s" s="7">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B300" t="n" s="8">
         <v>29845.0</v>
@@ -30602,10 +33580,20 @@
       <c r="AF300" t="n" s="8">
         <v>27114.0</v>
       </c>
+      <c r="AG300" t="n" s="8">
+        <v>26528.0</v>
+      </c>
+      <c r="AH300" t="n" s="8">
+        <v>26291.0</v>
+      </c>
+      <c r="AI300" t="n" s="8">
+        <v>26461.0</v>
+      </c>
+      <c r="AJ300"/>
     </row>
     <row r="301">
       <c r="A301" t="s" s="7">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B301" t="n" s="10">
         <v>5.3</v>
@@ -30700,10 +33688,20 @@
       <c r="AF301" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG301" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH301" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI301" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ301"/>
     </row>
     <row r="302">
       <c r="A302" t="s" s="7">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B302" t="n" s="8">
         <v>1261.0</v>
@@ -30798,10 +33796,20 @@
       <c r="AF302" t="n" s="8">
         <v>1848.0</v>
       </c>
+      <c r="AG302" t="n" s="8">
+        <v>1001.0</v>
+      </c>
+      <c r="AH302" t="n" s="8">
+        <v>826.0</v>
+      </c>
+      <c r="AI302" t="n" s="8">
+        <v>744.0</v>
+      </c>
+      <c r="AJ302"/>
     </row>
     <row r="303">
       <c r="A303" t="s" s="7">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B303" t="n" s="8">
         <v>22385.0</v>
@@ -30896,10 +33904,20 @@
       <c r="AF303" t="n" s="8">
         <v>22086.0</v>
       </c>
+      <c r="AG303" t="n" s="8">
+        <v>22658.0</v>
+      </c>
+      <c r="AH303" t="n" s="8">
+        <v>22670.0</v>
+      </c>
+      <c r="AI303" t="n" s="8">
+        <v>22928.0</v>
+      </c>
+      <c r="AJ303"/>
     </row>
     <row r="304">
       <c r="A304" t="s" s="7">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B304" t="n" s="8">
         <v>23646.0</v>
@@ -30994,10 +34012,20 @@
       <c r="AF304" t="n" s="8">
         <v>23934.0</v>
       </c>
+      <c r="AG304" t="n" s="8">
+        <v>23659.0</v>
+      </c>
+      <c r="AH304" t="n" s="8">
+        <v>23496.0</v>
+      </c>
+      <c r="AI304" t="n" s="8">
+        <v>23672.0</v>
+      </c>
+      <c r="AJ304"/>
     </row>
     <row r="305">
       <c r="A305" t="s" s="7">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B305" t="n" s="10">
         <v>6.4</v>
@@ -31092,10 +34120,20 @@
       <c r="AF305" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG305" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH305" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI305" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ305"/>
     </row>
     <row r="306">
       <c r="A306" t="s" s="7">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B306" t="n" s="8">
         <v>11824.0</v>
@@ -31190,10 +34228,20 @@
       <c r="AF306" t="n" s="8">
         <v>14804.0</v>
       </c>
+      <c r="AG306" t="n" s="8">
+        <v>9520.0</v>
+      </c>
+      <c r="AH306" t="n" s="8">
+        <v>7277.0</v>
+      </c>
+      <c r="AI306" t="n" s="8">
+        <v>6657.0</v>
+      </c>
+      <c r="AJ306"/>
     </row>
     <row r="307">
       <c r="A307" t="s" s="7">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B307" t="n" s="8">
         <v>172627.0</v>
@@ -31288,10 +34336,20 @@
       <c r="AF307" t="n" s="8">
         <v>168367.0</v>
       </c>
+      <c r="AG307" t="n" s="8">
+        <v>171855.0</v>
+      </c>
+      <c r="AH307" t="n" s="8">
+        <v>172413.0</v>
+      </c>
+      <c r="AI307" t="n" s="8">
+        <v>174311.0</v>
+      </c>
+      <c r="AJ307"/>
     </row>
     <row r="308">
       <c r="A308" t="s" s="7">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B308" t="n" s="8">
         <v>184451.0</v>
@@ -31386,10 +34444,20 @@
       <c r="AF308" t="n" s="8">
         <v>183171.0</v>
       </c>
+      <c r="AG308" t="n" s="8">
+        <v>181375.0</v>
+      </c>
+      <c r="AH308" t="n" s="8">
+        <v>179690.0</v>
+      </c>
+      <c r="AI308" t="n" s="8">
+        <v>180968.0</v>
+      </c>
+      <c r="AJ308"/>
     </row>
     <row r="309">
       <c r="A309" t="s" s="7">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B309" t="n" s="10">
         <v>5.2</v>
@@ -31484,10 +34552,20 @@
       <c r="AF309" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG309" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH309" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI309" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ309"/>
     </row>
     <row r="310">
       <c r="A310" t="s" s="7">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B310" t="n" s="8">
         <v>13599.0</v>
@@ -31582,10 +34660,20 @@
       <c r="AF310" t="n" s="8">
         <v>22232.0</v>
       </c>
+      <c r="AG310" t="n" s="8">
+        <v>14424.0</v>
+      </c>
+      <c r="AH310" t="n" s="8">
+        <v>10798.0</v>
+      </c>
+      <c r="AI310" t="n" s="8">
+        <v>9888.0</v>
+      </c>
+      <c r="AJ310"/>
     </row>
     <row r="311">
       <c r="A311" t="s" s="7">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B311" t="n" s="8">
         <v>245615.0</v>
@@ -31680,10 +34768,20 @@
       <c r="AF311" t="n" s="8">
         <v>245092.0</v>
       </c>
+      <c r="AG311" t="n" s="8">
+        <v>249374.0</v>
+      </c>
+      <c r="AH311" t="n" s="8">
+        <v>254663.0</v>
+      </c>
+      <c r="AI311" t="n" s="8">
+        <v>258006.0</v>
+      </c>
+      <c r="AJ311"/>
     </row>
     <row r="312">
       <c r="A312" t="s" s="7">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B312" t="n" s="8">
         <v>259214.0</v>
@@ -31778,10 +34876,20 @@
       <c r="AF312" t="n" s="8">
         <v>267324.0</v>
       </c>
+      <c r="AG312" t="n" s="8">
+        <v>263798.0</v>
+      </c>
+      <c r="AH312" t="n" s="8">
+        <v>265461.0</v>
+      </c>
+      <c r="AI312" t="n" s="8">
+        <v>267894.0</v>
+      </c>
+      <c r="AJ312"/>
     </row>
     <row r="313">
       <c r="A313" t="s" s="7">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B313" t="n" s="10">
         <v>7.8</v>
@@ -31876,10 +34984,20 @@
       <c r="AF313" t="n" s="10">
         <v>10.4</v>
       </c>
+      <c r="AG313" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH313" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI313" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ313"/>
     </row>
     <row r="314">
       <c r="A314" t="s" s="7">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B314" t="n" s="8">
         <v>8646.0</v>
@@ -31974,10 +35092,20 @@
       <c r="AF314" t="n" s="8">
         <v>8806.0</v>
       </c>
+      <c r="AG314" t="n" s="8">
+        <v>5335.0</v>
+      </c>
+      <c r="AH314" t="n" s="8">
+        <v>4096.0</v>
+      </c>
+      <c r="AI314" t="n" s="8">
+        <v>3635.0</v>
+      </c>
+      <c r="AJ314"/>
     </row>
     <row r="315">
       <c r="A315" t="s" s="7">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B315" t="n" s="8">
         <v>102267.0</v>
@@ -32072,10 +35200,20 @@
       <c r="AF315" t="n" s="8">
         <v>75837.0</v>
       </c>
+      <c r="AG315" t="n" s="8">
+        <v>77564.0</v>
+      </c>
+      <c r="AH315" t="n" s="8">
+        <v>78656.0</v>
+      </c>
+      <c r="AI315" t="n" s="8">
+        <v>79479.0</v>
+      </c>
+      <c r="AJ315"/>
     </row>
     <row r="316">
       <c r="A316" t="s" s="7">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B316" t="n" s="8">
         <v>110913.0</v>
@@ -32170,10 +35308,20 @@
       <c r="AF316" t="n" s="8">
         <v>84643.0</v>
       </c>
+      <c r="AG316" t="n" s="8">
+        <v>82899.0</v>
+      </c>
+      <c r="AH316" t="n" s="8">
+        <v>82752.0</v>
+      </c>
+      <c r="AI316" t="n" s="8">
+        <v>83114.0</v>
+      </c>
+      <c r="AJ316"/>
     </row>
     <row r="317">
       <c r="A317" t="s" s="7">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B317" t="n" s="10">
         <v>6.7</v>
@@ -32268,10 +35416,20 @@
       <c r="AF317" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG317" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH317" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI317" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ317"/>
     </row>
     <row r="318">
       <c r="A318" t="s" s="7">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B318" t="n" s="8">
         <v>2722.0</v>
@@ -32366,10 +35524,20 @@
       <c r="AF318" t="n" s="8">
         <v>3356.0</v>
       </c>
+      <c r="AG318" t="n" s="8">
+        <v>2064.0</v>
+      </c>
+      <c r="AH318" t="n" s="8">
+        <v>1696.0</v>
+      </c>
+      <c r="AI318" t="n" s="8">
+        <v>1604.0</v>
+      </c>
+      <c r="AJ318"/>
     </row>
     <row r="319">
       <c r="A319" t="s" s="7">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B319" t="n" s="8">
         <v>37945.0</v>
@@ -32464,10 +35632,20 @@
       <c r="AF319" t="n" s="8">
         <v>41102.0</v>
       </c>
+      <c r="AG319" t="n" s="8">
+        <v>42085.0</v>
+      </c>
+      <c r="AH319" t="n" s="8">
+        <v>42651.0</v>
+      </c>
+      <c r="AI319" t="n" s="8">
+        <v>43247.0</v>
+      </c>
+      <c r="AJ319"/>
     </row>
     <row r="320">
       <c r="A320" t="s" s="7">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B320" t="n" s="8">
         <v>40667.0</v>
@@ -32562,10 +35740,20 @@
       <c r="AF320" t="n" s="8">
         <v>44458.0</v>
       </c>
+      <c r="AG320" t="n" s="8">
+        <v>44149.0</v>
+      </c>
+      <c r="AH320" t="n" s="8">
+        <v>44347.0</v>
+      </c>
+      <c r="AI320" t="n" s="8">
+        <v>44851.0</v>
+      </c>
+      <c r="AJ320"/>
     </row>
     <row r="321">
       <c r="A321" t="s" s="7">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B321" t="n" s="10">
         <v>4.1</v>
@@ -32660,10 +35848,20 @@
       <c r="AF321" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG321" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH321" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI321" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ321"/>
     </row>
     <row r="322">
       <c r="A322" t="s" s="7">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B322" t="n" s="8">
         <v>667.0</v>
@@ -32758,10 +35956,20 @@
       <c r="AF322" t="n" s="8">
         <v>1710.0</v>
       </c>
+      <c r="AG322" t="n" s="8">
+        <v>1065.0</v>
+      </c>
+      <c r="AH322" t="n" s="8">
+        <v>912.0</v>
+      </c>
+      <c r="AI322" t="n" s="8">
+        <v>848.0</v>
+      </c>
+      <c r="AJ322"/>
     </row>
     <row r="323">
       <c r="A323" t="s" s="7">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B323" t="n" s="8">
         <v>15625.0</v>
@@ -32856,10 +36064,20 @@
       <c r="AF323" t="n" s="8">
         <v>27794.0</v>
       </c>
+      <c r="AG323" t="n" s="8">
+        <v>28731.0</v>
+      </c>
+      <c r="AH323" t="n" s="8">
+        <v>29196.0</v>
+      </c>
+      <c r="AI323" t="n" s="8">
+        <v>29589.0</v>
+      </c>
+      <c r="AJ323"/>
     </row>
     <row r="324">
       <c r="A324" t="s" s="7">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B324" t="n" s="8">
         <v>16292.0</v>
@@ -32954,10 +36172,20 @@
       <c r="AF324" t="n" s="8">
         <v>29504.0</v>
       </c>
+      <c r="AG324" t="n" s="8">
+        <v>29796.0</v>
+      </c>
+      <c r="AH324" t="n" s="8">
+        <v>30108.0</v>
+      </c>
+      <c r="AI324" t="n" s="8">
+        <v>30437.0</v>
+      </c>
+      <c r="AJ324"/>
     </row>
     <row r="325">
       <c r="A325" t="s" s="7">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B325" t="n" s="10">
         <v>6.7</v>
@@ -33052,10 +36280,20 @@
       <c r="AF325" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG325" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH325" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI325" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ325"/>
     </row>
     <row r="326">
       <c r="A326" t="s" s="7">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B326" t="n" s="8">
         <v>1066.0</v>
@@ -33150,10 +36388,20 @@
       <c r="AF326" t="n" s="8">
         <v>1035.0</v>
       </c>
+      <c r="AG326" t="n" s="8">
+        <v>576.0</v>
+      </c>
+      <c r="AH326" t="n" s="8">
+        <v>479.0</v>
+      </c>
+      <c r="AI326" t="n" s="8">
+        <v>414.0</v>
+      </c>
+      <c r="AJ326"/>
     </row>
     <row r="327">
       <c r="A327" t="s" s="7">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B327" t="n" s="8">
         <v>14911.0</v>
@@ -33248,10 +36496,20 @@
       <c r="AF327" t="n" s="8">
         <v>13702.0</v>
       </c>
+      <c r="AG327" t="n" s="8">
+        <v>13828.0</v>
+      </c>
+      <c r="AH327" t="n" s="8">
+        <v>13878.0</v>
+      </c>
+      <c r="AI327" t="n" s="8">
+        <v>14220.0</v>
+      </c>
+      <c r="AJ327"/>
     </row>
     <row r="328">
       <c r="A328" t="s" s="7">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B328" t="n" s="8">
         <v>15977.0</v>
@@ -33346,10 +36604,20 @@
       <c r="AF328" t="n" s="8">
         <v>14737.0</v>
       </c>
+      <c r="AG328" t="n" s="8">
+        <v>14404.0</v>
+      </c>
+      <c r="AH328" t="n" s="8">
+        <v>14357.0</v>
+      </c>
+      <c r="AI328" t="n" s="8">
+        <v>14634.0</v>
+      </c>
+      <c r="AJ328"/>
     </row>
     <row r="329">
       <c r="A329" t="s" s="7">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B329" t="n" s="10">
         <v>10.0</v>
@@ -33444,10 +36712,20 @@
       <c r="AF329" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG329" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH329" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI329" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ329"/>
     </row>
     <row r="330">
       <c r="A330" t="s" s="7">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B330" t="n" s="8">
         <v>441.0</v>
@@ -33542,10 +36820,20 @@
       <c r="AF330" t="n" s="8">
         <v>515.0</v>
       </c>
+      <c r="AG330" t="n" s="8">
+        <v>341.0</v>
+      </c>
+      <c r="AH330" t="n" s="8">
+        <v>268.0</v>
+      </c>
+      <c r="AI330" t="n" s="8">
+        <v>259.0</v>
+      </c>
+      <c r="AJ330"/>
     </row>
     <row r="331">
       <c r="A331" t="s" s="7">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B331" t="n" s="8">
         <v>3969.0</v>
@@ -33640,10 +36928,20 @@
       <c r="AF331" t="n" s="8">
         <v>5084.0</v>
       </c>
+      <c r="AG331" t="n" s="8">
+        <v>5120.0</v>
+      </c>
+      <c r="AH331" t="n" s="8">
+        <v>5128.0</v>
+      </c>
+      <c r="AI331" t="n" s="8">
+        <v>5181.0</v>
+      </c>
+      <c r="AJ331"/>
     </row>
     <row r="332">
       <c r="A332" t="s" s="7">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B332" t="n" s="8">
         <v>4410.0</v>
@@ -33738,10 +37036,20 @@
       <c r="AF332" t="n" s="8">
         <v>5599.0</v>
       </c>
+      <c r="AG332" t="n" s="8">
+        <v>5461.0</v>
+      </c>
+      <c r="AH332" t="n" s="8">
+        <v>5396.0</v>
+      </c>
+      <c r="AI332" t="n" s="8">
+        <v>5440.0</v>
+      </c>
+      <c r="AJ332"/>
     </row>
     <row r="333">
       <c r="A333" t="s" s="7">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B333" t="n" s="10">
         <v>4.6</v>
@@ -33836,10 +37144,20 @@
       <c r="AF333" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG333" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH333" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI333" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ333"/>
     </row>
     <row r="334">
       <c r="A334" t="s" s="7">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B334" t="n" s="8">
         <v>2798.0</v>
@@ -33934,10 +37252,20 @@
       <c r="AF334" t="n" s="8">
         <v>7613.0</v>
       </c>
+      <c r="AG334" t="n" s="8">
+        <v>4872.0</v>
+      </c>
+      <c r="AH334" t="n" s="8">
+        <v>4024.0</v>
+      </c>
+      <c r="AI334" t="n" s="8">
+        <v>3735.0</v>
+      </c>
+      <c r="AJ334"/>
     </row>
     <row r="335">
       <c r="A335" t="s" s="7">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B335" t="n" s="8">
         <v>57408.0</v>
@@ -34032,10 +37360,20 @@
       <c r="AF335" t="n" s="8">
         <v>112049.0</v>
       </c>
+      <c r="AG335" t="n" s="8">
+        <v>115880.0</v>
+      </c>
+      <c r="AH335" t="n" s="8">
+        <v>118391.0</v>
+      </c>
+      <c r="AI335" t="n" s="8">
+        <v>120341.0</v>
+      </c>
+      <c r="AJ335"/>
     </row>
     <row r="336">
       <c r="A336" t="s" s="7">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B336" t="n" s="8">
         <v>60206.0</v>
@@ -34130,10 +37468,20 @@
       <c r="AF336" t="n" s="8">
         <v>119662.0</v>
       </c>
+      <c r="AG336" t="n" s="8">
+        <v>120752.0</v>
+      </c>
+      <c r="AH336" t="n" s="8">
+        <v>122415.0</v>
+      </c>
+      <c r="AI336" t="n" s="8">
+        <v>124076.0</v>
+      </c>
+      <c r="AJ336"/>
     </row>
     <row r="337">
       <c r="A337" t="s" s="7">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B337" t="n" s="10">
         <v>6.4</v>
@@ -34228,10 +37576,20 @@
       <c r="AF337" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG337" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH337" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI337" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ337"/>
     </row>
     <row r="338">
       <c r="A338" t="s" s="7">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B338" t="n" s="8">
         <v>1930.0</v>
@@ -34326,10 +37684,20 @@
       <c r="AF338" t="n" s="8">
         <v>2303.0</v>
       </c>
+      <c r="AG338" t="n" s="8">
+        <v>1489.0</v>
+      </c>
+      <c r="AH338" t="n" s="8">
+        <v>1252.0</v>
+      </c>
+      <c r="AI338" t="n" s="8">
+        <v>1140.0</v>
+      </c>
+      <c r="AJ338"/>
     </row>
     <row r="339">
       <c r="A339" t="s" s="7">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B339" t="n" s="8">
         <v>28279.0</v>
@@ -34424,10 +37792,20 @@
       <c r="AF339" t="n" s="8">
         <v>24507.0</v>
       </c>
+      <c r="AG339" t="n" s="8">
+        <v>25011.0</v>
+      </c>
+      <c r="AH339" t="n" s="8">
+        <v>25343.0</v>
+      </c>
+      <c r="AI339" t="n" s="8">
+        <v>25729.0</v>
+      </c>
+      <c r="AJ339"/>
     </row>
     <row r="340">
       <c r="A340" t="s" s="7">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B340" t="n" s="8">
         <v>30209.0</v>
@@ -34522,10 +37900,20 @@
       <c r="AF340" t="n" s="8">
         <v>26810.0</v>
       </c>
+      <c r="AG340" t="n" s="8">
+        <v>26500.0</v>
+      </c>
+      <c r="AH340" t="n" s="8">
+        <v>26595.0</v>
+      </c>
+      <c r="AI340" t="n" s="8">
+        <v>26869.0</v>
+      </c>
+      <c r="AJ340"/>
     </row>
     <row r="341">
       <c r="A341" t="s" s="7">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B341" t="n" s="10">
         <v>5.0</v>
@@ -34620,10 +38008,20 @@
       <c r="AF341" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG341" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH341" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI341" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ341"/>
     </row>
     <row r="342">
       <c r="A342" t="s" s="7">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B342" t="n" s="8">
         <v>2604.0</v>
@@ -34718,10 +38116,20 @@
       <c r="AF342" t="n" s="8">
         <v>3544.0</v>
       </c>
+      <c r="AG342" t="n" s="8">
+        <v>2188.0</v>
+      </c>
+      <c r="AH342" t="n" s="8">
+        <v>1892.0</v>
+      </c>
+      <c r="AI342" t="n" s="8">
+        <v>1710.0</v>
+      </c>
+      <c r="AJ342"/>
     </row>
     <row r="343">
       <c r="A343" t="s" s="7">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B343" t="n" s="8">
         <v>49986.0</v>
@@ -34816,10 +38224,20 @@
       <c r="AF343" t="n" s="8">
         <v>56758.0</v>
       </c>
+      <c r="AG343" t="n" s="8">
+        <v>57613.0</v>
+      </c>
+      <c r="AH343" t="n" s="8">
+        <v>58114.0</v>
+      </c>
+      <c r="AI343" t="n" s="8">
+        <v>59030.0</v>
+      </c>
+      <c r="AJ343"/>
     </row>
     <row r="344">
       <c r="A344" t="s" s="7">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B344" t="n" s="8">
         <v>52590.0</v>
@@ -34914,10 +38332,20 @@
       <c r="AF344" t="n" s="8">
         <v>60302.0</v>
       </c>
+      <c r="AG344" t="n" s="8">
+        <v>59801.0</v>
+      </c>
+      <c r="AH344" t="n" s="8">
+        <v>60006.0</v>
+      </c>
+      <c r="AI344" t="n" s="8">
+        <v>60740.0</v>
+      </c>
+      <c r="AJ344"/>
     </row>
     <row r="345">
       <c r="A345" t="s" s="7">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B345" t="n" s="10">
         <v>5.9</v>
@@ -35012,10 +38440,20 @@
       <c r="AF345" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG345" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH345" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI345" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ345"/>
     </row>
     <row r="346">
       <c r="A346" t="s" s="7">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B346" t="n" s="8">
         <v>1195.0</v>
@@ -35110,10 +38548,20 @@
       <c r="AF346" t="n" s="8">
         <v>1454.0</v>
       </c>
+      <c r="AG346" t="n" s="8">
+        <v>797.0</v>
+      </c>
+      <c r="AH346" t="n" s="8">
+        <v>617.0</v>
+      </c>
+      <c r="AI346" t="n" s="8">
+        <v>572.0</v>
+      </c>
+      <c r="AJ346"/>
     </row>
     <row r="347">
       <c r="A347" t="s" s="7">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B347" t="n" s="8">
         <v>18970.0</v>
@@ -35208,10 +38656,20 @@
       <c r="AF347" t="n" s="8">
         <v>17334.0</v>
       </c>
+      <c r="AG347" t="n" s="8">
+        <v>17501.0</v>
+      </c>
+      <c r="AH347" t="n" s="8">
+        <v>17490.0</v>
+      </c>
+      <c r="AI347" t="n" s="8">
+        <v>17595.0</v>
+      </c>
+      <c r="AJ347"/>
     </row>
     <row r="348">
       <c r="A348" t="s" s="7">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B348" t="n" s="8">
         <v>20165.0</v>
@@ -35306,10 +38764,20 @@
       <c r="AF348" t="n" s="8">
         <v>18788.0</v>
       </c>
+      <c r="AG348" t="n" s="8">
+        <v>18298.0</v>
+      </c>
+      <c r="AH348" t="n" s="8">
+        <v>18107.0</v>
+      </c>
+      <c r="AI348" t="n" s="8">
+        <v>18167.0</v>
+      </c>
+      <c r="AJ348"/>
     </row>
     <row r="349">
       <c r="A349" t="s" s="7">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B349" t="n" s="10">
         <v>6.0</v>
@@ -35404,10 +38872,20 @@
       <c r="AF349" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG349" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH349" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI349" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ349"/>
     </row>
     <row r="350">
       <c r="A350" t="s" s="7">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B350" t="n" s="8">
         <v>3648.0</v>
@@ -35502,10 +38980,20 @@
       <c r="AF350" t="n" s="8">
         <v>4878.0</v>
       </c>
+      <c r="AG350" t="n" s="8">
+        <v>2985.0</v>
+      </c>
+      <c r="AH350" t="n" s="8">
+        <v>2432.0</v>
+      </c>
+      <c r="AI350" t="n" s="8">
+        <v>2257.0</v>
+      </c>
+      <c r="AJ350"/>
     </row>
     <row r="351">
       <c r="A351" t="s" s="7">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B351" t="n" s="8">
         <v>57339.0</v>
@@ -35600,10 +39088,20 @@
       <c r="AF351" t="n" s="8">
         <v>64350.0</v>
       </c>
+      <c r="AG351" t="n" s="8">
+        <v>65823.0</v>
+      </c>
+      <c r="AH351" t="n" s="8">
+        <v>66800.0</v>
+      </c>
+      <c r="AI351" t="n" s="8">
+        <v>67823.0</v>
+      </c>
+      <c r="AJ351"/>
     </row>
     <row r="352">
       <c r="A352" t="s" s="7">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B352" t="n" s="8">
         <v>60987.0</v>
@@ -35698,10 +39196,20 @@
       <c r="AF352" t="n" s="8">
         <v>69228.0</v>
       </c>
+      <c r="AG352" t="n" s="8">
+        <v>68808.0</v>
+      </c>
+      <c r="AH352" t="n" s="8">
+        <v>69232.0</v>
+      </c>
+      <c r="AI352" t="n" s="8">
+        <v>70080.0</v>
+      </c>
+      <c r="AJ352"/>
     </row>
     <row r="353">
       <c r="A353" t="s" s="7">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B353" t="n" s="10">
         <v>6.9</v>
@@ -35796,10 +39304,20 @@
       <c r="AF353" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG353" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH353" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI353" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ353"/>
     </row>
     <row r="354">
       <c r="A354" t="s" s="7">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B354" t="n" s="8">
         <v>796.0</v>
@@ -35894,10 +39412,20 @@
       <c r="AF354" t="n" s="8">
         <v>892.0</v>
       </c>
+      <c r="AG354" t="n" s="8">
+        <v>457.0</v>
+      </c>
+      <c r="AH354" t="n" s="8">
+        <v>381.0</v>
+      </c>
+      <c r="AI354" t="n" s="8">
+        <v>350.0</v>
+      </c>
+      <c r="AJ354"/>
     </row>
     <row r="355">
       <c r="A355" t="s" s="7">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B355" t="n" s="8">
         <v>10659.0</v>
@@ -35992,10 +39520,20 @@
       <c r="AF355" t="n" s="8">
         <v>12003.0</v>
       </c>
+      <c r="AG355" t="n" s="8">
+        <v>12369.0</v>
+      </c>
+      <c r="AH355" t="n" s="8">
+        <v>12795.0</v>
+      </c>
+      <c r="AI355" t="n" s="8">
+        <v>13079.0</v>
+      </c>
+      <c r="AJ355"/>
     </row>
     <row r="356">
       <c r="A356" t="s" s="7">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B356" t="n" s="8">
         <v>11455.0</v>
@@ -36090,6 +39628,16 @@
       <c r="AF356" t="n" s="8">
         <v>12895.0</v>
       </c>
+      <c r="AG356" t="n" s="8">
+        <v>12826.0</v>
+      </c>
+      <c r="AH356" t="n" s="8">
+        <v>13176.0</v>
+      </c>
+      <c r="AI356" t="n" s="8">
+        <v>13429.0</v>
+      </c>
+      <c r="AJ356"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -36100,7 +39648,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (02:19:42 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:58:48 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
